--- a/backend/temp.xlsx
+++ b/backend/temp.xlsx
@@ -37,8 +37,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -69,8 +71,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,667 +423,407 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="str">
+      <c r="A1" s="1" t="str">
         <v>ST. FRANCIS INSTITUTE OF TECHNOLOGY</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
-        <v>UNIVERSITY OF MUMBAI</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Results of the Second Year Engineering(SEMESTER:IV)(CREDIT BASED GRADING SYSTEM) Examination in the branch of ELECTRONICS AND TELECOMMUNICATION , held in December  2017</v>
+      <c r="A2" s="1" t="str">
+        <v xml:space="preserve"> UNIVERSITY OF MUMBAI</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="str">
-        <v>COURSE I:ETS401     :Applied Mathematics IV</v>
-      </c>
-      <c r="C4" t="str">
-        <v>COURSE II:ETC402     :Analog Electronics II</v>
-      </c>
-      <c r="E4" t="str">
-        <v>COURSE III:ETC403     :Microprocessors and Peripherals</v>
+      <c r="A4" s="1" t="str">
+        <v>COURSE I:ETS401     :</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <v>COURSE II:ETC402     :</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <v>COURSE III:ETC403     :</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="str">
-        <v>COURSE IV:ETC404     :Wave Theory and Propagation</v>
-      </c>
-      <c r="C5" t="str">
-        <v>COURSE V:ETC405     :Signals and Systems</v>
-      </c>
-      <c r="E5" t="str">
-        <v>COURSE VI:ETC406     :Control Systems</v>
+      <c r="A5" s="1" t="str">
+        <v>COURSE IV:ETC404     :</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <v>COURSE V:ETC405     :</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <v>COURSE VI:ETC406     :</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="str">
-        <v>COURSE VII:ETL401     :Analog Electronics II Laboratory</v>
-      </c>
-      <c r="C6" t="str">
-        <v>COURSE VIII:ETL402     :Microprocessors and Peripherals Laboratory</v>
-      </c>
-      <c r="E6" t="str">
-        <v>COURSE IX:ETL403     :Software Simulation Laboratory</v>
+      <c r="A6" s="1" t="str">
+        <v>COURSE VII:ETL401     :</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <v>COURSE VIII:ETL402     :</v>
+      </c>
+      <c r="E6" s="1" t="str">
+        <v>COURSE IX:ETL403     :</v>
       </c>
     </row>
     <row r="7">
-      <c r="C7" t="str">
+      <c r="C7" s="1" t="str">
         <v>&lt;------Course I------&gt;</v>
       </c>
-      <c r="D7" t="str">
+      <c r="D7" s="1" t="str">
         <v>&lt;------Course II------&gt;</v>
       </c>
-      <c r="E7" t="str">
+      <c r="E7" s="1" t="str">
         <v>&lt;------Course III------&gt;</v>
       </c>
-      <c r="F7" t="str">
+      <c r="F7" s="1" t="str">
         <v>&lt;------Course IV------&gt;</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" t="str">
+      <c r="B8" s="1" t="str">
         <v>THEORY</v>
       </c>
-      <c r="C8" t="str">
+      <c r="C8" s="1" t="str">
         <v>80/32   20/8   100 C G GP C*GP</v>
       </c>
-      <c r="D8" t="str">
+      <c r="D8" s="1" t="str">
         <v>80/32   20/8   100 C G GP C*GP</v>
       </c>
-      <c r="E8" t="str">
+      <c r="E8" s="1" t="str">
         <v>80/32   20/8   100 C G GP C*GP</v>
       </c>
-      <c r="F8" t="str">
+      <c r="F8" s="1" t="str">
         <v>80/32   20/8   100 C G GP C*GP</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" t="str">
+      <c r="B9" s="1" t="str">
         <v>TERMWORK/ORAL</v>
       </c>
-      <c r="C9" t="str">
+      <c r="C9" s="1" t="str">
         <v>25/10   C G GP C*GP</v>
       </c>
     </row>
     <row r="10">
-      <c r="C10" t="str">
+      <c r="C10" s="1" t="str">
         <v>&lt;------Course V------&gt;</v>
       </c>
-      <c r="D10" t="str">
+      <c r="D10" s="1" t="str">
         <v>&lt;------Course VI------&gt;</v>
       </c>
-      <c r="E10" t="str">
+      <c r="E10" s="1" t="str">
         <v>&lt;------Course VII------&gt;</v>
       </c>
-      <c r="F10" t="str">
+      <c r="F10" s="1" t="str">
         <v>&lt;------Course VIII------&gt;</v>
       </c>
-      <c r="G10" t="str">
+      <c r="G10" s="1" t="str">
         <v>&lt;------Course IX------&gt;</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="str">
+      <c r="B11" s="1" t="str">
         <v>THEORY</v>
       </c>
-      <c r="C11" t="str">
+      <c r="C11" s="1" t="str">
         <v>80/32   20/8   100 C G GP C*GP</v>
       </c>
-      <c r="D11" t="str">
+      <c r="D11" s="1" t="str">
         <v>80/32   20/8   100 C G GP C*GP</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="str">
+      <c r="B12" s="1" t="str">
         <v>TERMWORK/ORAL</v>
       </c>
-      <c r="C12" t="str">
+      <c r="C12" s="1" t="str">
         <v>25/10   C G GP C*GP</v>
       </c>
-      <c r="E12" t="str">
+      <c r="E12" s="1" t="str">
         <v>25/10  25/10    50 C G GP C*GP</v>
       </c>
-      <c r="F12" t="str">
+      <c r="F12" s="1" t="str">
         <v>25/10  25/10    50 C G GP C*GP</v>
       </c>
-      <c r="G12" t="str">
+      <c r="G12" s="1" t="str">
         <v>25/10  25/10    50 C G GP C*GP</v>
       </c>
-      <c r="H12" t="str">
+      <c r="H12" s="1" t="str">
         <v>∑C</v>
       </c>
-      <c r="I12" t="str">
+      <c r="I12" s="1" t="str">
         <v>∑CG</v>
       </c>
-      <c r="J12" t="str">
+      <c r="J12" s="1" t="str">
         <v>GPA</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13">
-        <v>43001</v>
-      </c>
-      <c r="C13" t="str">
-        <v xml:space="preserve">11 F (F)  - AB (F)  - - - - - </v>
-      </c>
-      <c r="D13" t="str">
-        <v xml:space="preserve">32 E (P)  8 + (P)  40 4 (P) 4 16 </v>
-      </c>
-      <c r="E13" t="str">
-        <v xml:space="preserve">32 + (P)  8 + (P)  40 4 (P) 4 16 </v>
-      </c>
-      <c r="F13" t="str">
-        <v xml:space="preserve">32 E (P)  9 + (E)  41 4 (P) 4 16 </v>
-      </c>
-    </row>
     <row r="14">
-      <c r="C14" t="str">
-        <v xml:space="preserve">10 + (P) 1  4 4 </v>
+      <c r="A14" s="1" t="str">
+        <v>191039</v>
+      </c>
+      <c r="C14" s="1" t="str">
+        <v/>
+      </c>
+      <c r="D14" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E14" s="1" t="str">
+        <v/>
       </c>
     </row>
     <row r="15">
-      <c r="C15" t="str">
-        <v xml:space="preserve">- AB (F)  9 + (E)  - - - - - </v>
-      </c>
-      <c r="D15" t="str">
-        <v xml:space="preserve">32 + (P)  8 + (P)  40 4 (P) 4 16 </v>
-      </c>
-      <c r="I15" t="str">
-        <v xml:space="preserve">F </v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="C16" t="str">
-        <v xml:space="preserve">16 + (C) 1  7 7 </v>
-      </c>
-      <c r="E16" t="str">
-        <v xml:space="preserve">14 + (D) 10 + (P) 24 1 E 5 5 </v>
-      </c>
-      <c r="F16" t="str">
-        <v xml:space="preserve">17 + (C) 14 + (D) 31 1 C 7 7 </v>
-      </c>
-      <c r="G16" t="str">
-        <v xml:space="preserve">16 + (C) 16 + (C) 32 1 C 7 7 </v>
-      </c>
-      <c r="H16">
-        <v>21</v>
-      </c>
-      <c r="I16">
-        <v>94</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18">
-        <v>43002</v>
-      </c>
-      <c r="C18" t="str">
-        <v xml:space="preserve">33 + (P)  9 + (E)  42 4 (P) 4 16 </v>
-      </c>
-      <c r="D18" t="str">
-        <v xml:space="preserve">37  (E)  11 + (D)  48 4 (E) 5 20 </v>
-      </c>
-      <c r="E18" t="str">
-        <v xml:space="preserve">32 + (P)  9 + (E)  41 4 (P) 4 16 </v>
-      </c>
-      <c r="F18" t="str">
-        <v xml:space="preserve">33 + (P)  8 + (P)  41 4 (P) 4 16 </v>
+      <c r="C15" s="1" t="str">
+        <v>33/</v>
+      </c>
+      <c r="D15" s="1" t="str">
+        <v>33/</v>
+      </c>
+      <c r="E15" s="1" t="str">
+        <v>33/</v>
       </c>
     </row>
     <row r="19">
-      <c r="C19" t="str">
-        <v xml:space="preserve">10 + (P) 1  4 4 </v>
+      <c r="A19" s="1" t="str">
+        <v>201002</v>
+      </c>
+      <c r="C19" s="1" t="str">
+        <v/>
+      </c>
+      <c r="D19" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E19" s="1" t="str">
+        <v/>
       </c>
     </row>
     <row r="20">
-      <c r="C20" t="str">
-        <v xml:space="preserve">33 + (P)  13 + (C)  46 3 (E) 5 15 </v>
-      </c>
-      <c r="D20" t="str">
-        <v xml:space="preserve">45 + (D)  8 + (P)  53 4 (D) 6 24 </v>
-      </c>
-      <c r="I20" t="str">
-        <v xml:space="preserve">RS3 </v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="C21" t="str">
-        <v xml:space="preserve">13 + (D) 1  6 6 </v>
-      </c>
-      <c r="E21" t="str">
-        <v xml:space="preserve">13 + (D) 15 + (C) 28 1 D 6 6 </v>
-      </c>
-      <c r="F21" t="str">
-        <v xml:space="preserve">16 + (C) 15 + (C) 31 1 C 7 7 </v>
-      </c>
-      <c r="G21" t="str">
-        <v xml:space="preserve">21 + (O) 12 + (E) 33 1 C 7 7 </v>
-      </c>
-      <c r="H21">
-        <v>28</v>
-      </c>
-      <c r="I21">
-        <v>137</v>
-      </c>
-      <c r="J21">
-        <v>4.89</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23">
-        <v>43003</v>
-      </c>
-      <c r="C23" t="str">
-        <v xml:space="preserve">32  (P)  12 + (C)  44 4 (P) 4 16 </v>
-      </c>
-      <c r="D23" t="str">
-        <v xml:space="preserve">37 + (E)  13 + (C)  50 4 (D) 6 24 </v>
-      </c>
-      <c r="E23" t="str">
-        <v xml:space="preserve">51 + (C)  14 + (B)  65 4 (C) 7 28 </v>
-      </c>
-      <c r="F23" t="str">
-        <v xml:space="preserve">46 + (D)  10 + (D)  56 4 (D) 6 24 </v>
+      <c r="C20" s="1" t="str">
+        <v>96/</v>
+      </c>
+      <c r="D20" s="1" t="str">
+        <v>96/</v>
+      </c>
+      <c r="E20" s="1" t="str">
+        <v>96/</v>
       </c>
     </row>
     <row r="24">
-      <c r="C24" t="str">
-        <v xml:space="preserve">10 + (P) 1  4 4 </v>
+      <c r="A24" s="1" t="str">
+        <v>201004</v>
+      </c>
+      <c r="C24" s="1" t="str">
+        <v/>
+      </c>
+      <c r="D24" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E24" s="1" t="str">
+        <v/>
       </c>
     </row>
     <row r="25">
-      <c r="C25" t="str">
-        <v xml:space="preserve">40 + (D)  15 + (A)  55 3 (D) 6 18 </v>
-      </c>
-      <c r="D25" t="str">
-        <v xml:space="preserve">34 + (P)  12 + (C)  46 4 (E) 5 20 </v>
-      </c>
-      <c r="I25" t="str">
-        <v xml:space="preserve">RS3 </v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="C26" t="str">
-        <v xml:space="preserve">22 + (O) 1  10 10 </v>
-      </c>
-      <c r="E26" t="str">
-        <v xml:space="preserve">17 + (C) 15 + (C) 32 1 C 7 7 </v>
-      </c>
-      <c r="F26" t="str">
-        <v xml:space="preserve">21 + (O) 20 + (O) 41 1 O 10 10 </v>
-      </c>
-      <c r="G26" t="str">
-        <v xml:space="preserve">16 + (C) 20 + (O) 36 1 B 8 8 </v>
-      </c>
-      <c r="H26">
-        <v>28</v>
-      </c>
-      <c r="I26">
-        <v>169</v>
-      </c>
-      <c r="J26">
-        <v>6.04</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28">
-        <v>43004</v>
-      </c>
-      <c r="C28" t="str">
-        <v xml:space="preserve">32 E (P)  11 + (D)  43 4 (P) 4 16 </v>
-      </c>
-      <c r="D28" t="str">
-        <v xml:space="preserve">35 + (P)  11 + (D)  46 4 (E) 5 20 </v>
-      </c>
-      <c r="E28" t="str">
-        <v xml:space="preserve">32 + (P)  10 + (D)  42 4 (P) 4 16 </v>
-      </c>
-      <c r="F28" t="str">
-        <v xml:space="preserve">32 + (P)  12 + (C)  44 4 (P) 4 16 </v>
+      <c r="C25" s="1" t="str">
+        <v>78/</v>
+      </c>
+      <c r="D25" s="1" t="str">
+        <v>78/</v>
+      </c>
+      <c r="E25" s="1" t="str">
+        <v>78/</v>
       </c>
     </row>
     <row r="29">
-      <c r="C29" t="str">
-        <v xml:space="preserve">10 + (P) 1  4 4 </v>
+      <c r="A29" s="1" t="str">
+        <v>201006</v>
+      </c>
+      <c r="C29" s="1" t="str">
+        <v/>
+      </c>
+      <c r="D29" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E29" s="1" t="str">
+        <v/>
       </c>
     </row>
     <row r="30">
-      <c r="C30" t="str">
-        <v xml:space="preserve">32 + (P)  10 + (D)  42 3 (P) 4 12 </v>
-      </c>
-      <c r="D30" t="str">
-        <v xml:space="preserve">- AB (F)  8 + (P)  - - - - - </v>
-      </c>
-      <c r="I30" t="str">
-        <v xml:space="preserve">F </v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="C31" t="str">
-        <v xml:space="preserve">19 + (A) 1  9 9 </v>
-      </c>
-      <c r="E31" t="str">
-        <v xml:space="preserve">10 + (P) 10 + (P) 20 1 P 4 4 </v>
-      </c>
-      <c r="F31" t="str">
-        <v xml:space="preserve">10 + (P) 20 + (O) 30 1 C 7 7 </v>
-      </c>
-      <c r="G31" t="str">
-        <v xml:space="preserve">18 + (B) 19 + (A) 37 1 B 8 8 </v>
-      </c>
-      <c r="H31">
-        <v>24</v>
-      </c>
-      <c r="I31">
-        <v>112</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33">
-        <v>43005</v>
-      </c>
-      <c r="C33" t="str">
-        <v xml:space="preserve">32  (P)  12 + (C)  44 4 (P) 4 16 </v>
-      </c>
-      <c r="D33" t="str">
-        <v xml:space="preserve">42 + (D)  12 + (C)  54 4 (D) 6 24 </v>
-      </c>
-      <c r="E33" t="str">
-        <v xml:space="preserve">50 + (C)  13 + (C)  63 4 (C) 7 28 </v>
-      </c>
-      <c r="F33" t="str">
-        <v xml:space="preserve">41 + (D)  8 + (P)  49 4 (E) 5 20 </v>
+      <c r="C30" s="1" t="str">
+        <v>65/</v>
+      </c>
+      <c r="D30" s="1" t="str">
+        <v>65/</v>
+      </c>
+      <c r="E30" s="1" t="str">
+        <v>65/</v>
       </c>
     </row>
     <row r="34">
-      <c r="C34" t="str">
-        <v xml:space="preserve">10 + (P) 1  4 4 </v>
+      <c r="A34" s="1" t="str">
+        <v>201009</v>
+      </c>
+      <c r="C34" s="1" t="str">
+        <v/>
+      </c>
+      <c r="D34" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E34" s="1" t="str">
+        <v/>
       </c>
     </row>
     <row r="35">
-      <c r="C35" t="str">
-        <v xml:space="preserve">36 + (E)  10 + (D)  46 3 (E) 5 15 </v>
-      </c>
-      <c r="D35" t="str">
-        <v xml:space="preserve">34 + (P)  14 + (B)  48 4 (E) 5 20 </v>
-      </c>
-      <c r="I35" t="str">
-        <v xml:space="preserve">P </v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="C36" t="str">
-        <v xml:space="preserve">21 + (O) 1  10 10 </v>
-      </c>
-      <c r="E36" t="str">
-        <v xml:space="preserve">20 + (O) 23 + (O) 43 1 O 10 10 </v>
-      </c>
-      <c r="F36" t="str">
-        <v xml:space="preserve">20 + (O) 16 + (C) 36 1 B 8 8 </v>
-      </c>
-      <c r="G36" t="str">
-        <v xml:space="preserve">17 + (C) 21 + (O) 38 1 A 9 9 </v>
-      </c>
-      <c r="H36">
-        <v>28</v>
-      </c>
-      <c r="I36">
-        <v>164</v>
-      </c>
-      <c r="J36">
-        <v>5.86</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38">
-        <v>43006</v>
-      </c>
-      <c r="C38" t="str">
-        <v xml:space="preserve">32 + (P)  10 + (D)  42 4 (P) 4 16 </v>
-      </c>
-      <c r="D38" t="str">
-        <v xml:space="preserve">32 + (P)  13 + (C)  45 4 (E) 5 20 </v>
-      </c>
-      <c r="E38" t="str">
-        <v xml:space="preserve">34 + (P)  16 + (O)  50 4 (D) 6 24 </v>
-      </c>
-      <c r="F38" t="str">
-        <v xml:space="preserve">40  (D)  15 + (A)  55 4 (D) 6 24 </v>
+      <c r="C35" s="1" t="str">
+        <v>86/</v>
+      </c>
+      <c r="D35" s="1" t="str">
+        <v>86/</v>
+      </c>
+      <c r="E35" s="1" t="str">
+        <v>86/</v>
       </c>
     </row>
     <row r="39">
-      <c r="C39" t="str">
-        <v xml:space="preserve">14 + (D) 1  6 6 </v>
+      <c r="A39" s="1" t="str">
+        <v>201019</v>
+      </c>
+      <c r="C39" s="1" t="str">
+        <v/>
+      </c>
+      <c r="D39" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E39" s="1" t="str">
+        <v/>
       </c>
     </row>
     <row r="40">
-      <c r="C40" t="str">
-        <v xml:space="preserve">39 + (E)  19 + (O)  58 3 (D) 6 18 </v>
-      </c>
-      <c r="D40" t="str">
-        <v xml:space="preserve">36 + (E)  16 + (O)  52 4 (D) 6 24 </v>
-      </c>
-      <c r="I40" t="str">
-        <v xml:space="preserve">P </v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="C41" t="str">
-        <v xml:space="preserve">20 + (O) 1  10 10 </v>
-      </c>
-      <c r="E41" t="str">
-        <v xml:space="preserve">20 + (O) 22 + (O) 42 1 O 10 10 </v>
-      </c>
-      <c r="F41" t="str">
-        <v xml:space="preserve">19 + (A) 10 + (P) 29 1 D 6 6 </v>
-      </c>
-      <c r="G41" t="str">
-        <v xml:space="preserve">18 + (B) 18 + (B) 36 1 B 8 8 </v>
-      </c>
-      <c r="H41">
-        <v>28</v>
-      </c>
-      <c r="I41">
-        <v>166</v>
-      </c>
-      <c r="J41">
-        <v>5.93</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43">
-        <v>43007</v>
-      </c>
-      <c r="C43" t="str">
-        <v xml:space="preserve">35  (P)  11 + (D)  46 4 (E) 5 20 </v>
-      </c>
-      <c r="D43" t="str">
-        <v xml:space="preserve">69 + (O)  17 + (O)  86 4 (O) 10 40 </v>
-      </c>
-      <c r="E43" t="str">
-        <v xml:space="preserve">62 + (A)  18 + (O)  80 4 (O) 10 40 </v>
-      </c>
-      <c r="F43" t="str">
-        <v xml:space="preserve">43 + (D)  11 + (D)  54 4 (D) 6 24 </v>
+      <c r="C40" s="1" t="str">
+        <v>12/</v>
+      </c>
+      <c r="D40" s="1" t="str">
+        <v>12/</v>
+      </c>
+      <c r="E40" s="1" t="str">
+        <v>12/</v>
       </c>
     </row>
     <row r="44">
-      <c r="C44" t="str">
-        <v xml:space="preserve">12 + (E) 1  5 5 </v>
+      <c r="A44" s="1" t="str">
+        <v>201022</v>
+      </c>
+      <c r="C44" s="1" t="str">
+        <v/>
+      </c>
+      <c r="D44" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E44" s="1" t="str">
+        <v/>
       </c>
     </row>
     <row r="45">
-      <c r="C45" t="str">
-        <v>HI</v>
-      </c>
-      <c r="D45" t="str">
-        <v xml:space="preserve">37 + (E)  11 + (D)  48 4 (E) 5 20 </v>
-      </c>
-      <c r="I45" t="str">
-        <v xml:space="preserve">P </v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="C46" t="str">
-        <v xml:space="preserve">22 + (O) 1  10 10 </v>
-      </c>
-      <c r="E46" t="str">
-        <v xml:space="preserve">23 + (O) 22 + (O) 45 1 O 10 10 </v>
-      </c>
-      <c r="F46" t="str">
-        <v xml:space="preserve">23 + (O) 18 + (B) 41 1 O 10 10 </v>
-      </c>
-      <c r="G46" t="str">
-        <v xml:space="preserve">15 + (C) 15 + (C) 30 1 C 7 7 </v>
-      </c>
-      <c r="H46">
-        <v>28</v>
-      </c>
-      <c r="I46">
-        <v>207</v>
-      </c>
-      <c r="J46">
-        <v>7.39</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48">
-        <v>43008</v>
-      </c>
-      <c r="C48" t="str">
-        <v xml:space="preserve">32  (P)  11 + (D)  43 4 (P) 4 16 </v>
-      </c>
-      <c r="D48" t="str">
-        <v xml:space="preserve">52 + (C)  14 + (B)  66 4 (C) 7 28 </v>
-      </c>
-      <c r="E48" t="str">
-        <v xml:space="preserve">42 + (D)  14 + (B)  56 4 (D) 6 24 </v>
-      </c>
-      <c r="F48" t="str">
-        <v xml:space="preserve">32 + (P)  8 + (P)  40 4 (P) 4 16 </v>
+      <c r="C45" s="1" t="str">
+        <v>78/</v>
+      </c>
+      <c r="D45" s="1" t="str">
+        <v>78/</v>
+      </c>
+      <c r="E45" s="1" t="str">
+        <v>78/</v>
       </c>
     </row>
     <row r="49">
-      <c r="C49" t="str">
-        <v xml:space="preserve">12 + (E) 1  5 5 </v>
+      <c r="A49" s="1" t="str">
+        <v>201024</v>
+      </c>
+      <c r="C49" s="1" t="str">
+        <v/>
+      </c>
+      <c r="D49" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E49" s="1" t="str">
+        <v/>
       </c>
     </row>
     <row r="50">
-      <c r="C50" t="str">
-        <v xml:space="preserve">33 + (P)  13 + (C)  46 3 (E) 5 15 </v>
-      </c>
-      <c r="D50" t="str">
-        <v xml:space="preserve">32 + (P)  13 + (C)  45 4 (E) 5 20 </v>
-      </c>
-      <c r="I50" t="str">
-        <v xml:space="preserve">P </v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="C51" t="str">
-        <v xml:space="preserve">18 + (B) 1  8 8 </v>
-      </c>
-      <c r="E51" t="str">
-        <v xml:space="preserve">24 + (O) 17 + (C) 41 1 O 10 10 </v>
-      </c>
-      <c r="F51" t="str">
-        <v xml:space="preserve">20 + (O) 16 + (C) 36 1 B 8 8 </v>
-      </c>
-      <c r="G51" t="str">
-        <v xml:space="preserve">21 + (O) 19 + (A) 40 1 O 10 10 </v>
-      </c>
-      <c r="H51">
-        <v>28</v>
-      </c>
-      <c r="I51">
-        <v>160</v>
-      </c>
-      <c r="J51">
-        <v>5.71</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="str">
-        <v>/ - FEMALE , # - 0.229 , @ - 0.5042 , * - 5045 , ADC - ADMISSION CANCELLED , RR - RESERVED , -: Fails in Theory or Practical , RPV - PROVISIONAL , RCC - 0.5050 , A,ABS - ABSENT , F* - FAILS , P - PASSES , NULL - NULL &amp; VOID</v>
+      <c r="C50" s="1" t="str">
+        <v>76/</v>
+      </c>
+      <c r="D50" s="1" t="str">
+        <v>76/</v>
+      </c>
+      <c r="E50" s="1" t="str">
+        <v>76/</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="str">
-        <v>RPV - PROVISIONAL , RCC - 0.5050 , A,ABS - ABSENT , F* - FAILS , P - PASSES , NULL - NULL &amp; VOID</v>
+      <c r="A54" s="1" t="str">
+        <v>201026</v>
+      </c>
+      <c r="C54" s="1" t="str">
+        <v/>
+      </c>
+      <c r="D54" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E54" s="1" t="str">
+        <v/>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="str">
-        <v>G:grade     GP:gradepoints      C:credits       CP:credits points       ∑CG:sum of product of credits &amp; grades      ∑C:sum of credits points        GPA:∑CG / ∑C</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="str">
-        <v>MARKS               : &gt;=80              &gt;=75 and &lt;80            &gt;=70 and &lt;75            &gt;=60 and &lt;70            &gt;=50 and &lt;60            &gt;=45 and &lt;50            &gt;=40 and &lt;45            &lt;40</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="str">
-        <v>GRADE               :    O                              A                                   B                                   C                                   D                                   E                                   P                           F</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="str">
-        <v>GRADE POINT :  10                               9                                   8                                    7                                    6                                   5                                   4                           0</v>
+      <c r="C55" s="1" t="str">
+        <v>76/</v>
+      </c>
+      <c r="D55" s="1" t="str">
+        <v>76/</v>
+      </c>
+      <c r="E55" s="1" t="str">
+        <v>76/</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="str">
+        <v>201029</v>
+      </c>
+      <c r="C59" s="1" t="str">
+        <v/>
+      </c>
+      <c r="D59" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E59" s="1" t="str">
+        <v/>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="str">
-        <v>RESULT PREPARED BY : ________________________________________</v>
-      </c>
-      <c r="E60" t="str">
-        <v>RESULT CHECKED BY : ________________________________________</v>
-      </c>
-      <c r="H60" t="str">
-        <v>PRINCIPAL</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="str">
-        <v>RESULT DATE : 30.12.2017</v>
+      <c r="C60" s="1" t="str">
+        <v>56/</v>
+      </c>
+      <c r="D60" s="1" t="str">
+        <v>56/</v>
+      </c>
+      <c r="E60" s="1" t="str">
+        <v>56/</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="H60:L60"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="A53:L53"/>
-    <mergeCell ref="A54:L54"/>
-    <mergeCell ref="A55:L55"/>
-    <mergeCell ref="A56:L56"/>
-    <mergeCell ref="A57:L57"/>
-    <mergeCell ref="A58:L58"/>
+  <mergeCells count="12">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:F6"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
   </mergeCells>
-  <pageMargins left="0.7000000000000001" right="0.7000000000000001" top="0.75" bottom="0.75" header="0.5118110236220472" footer="0.5118110236220472"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <ignoredErrors>
     <ignoredError numberStoredAsText="1" sqref="A1:L62"/>
   </ignoredErrors>
@@ -1089,675 +832,74 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L63"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
-      <c r="A1" t="str">
-        <v>ST. FRANCIS INSTITUTE OF TECHNOLOGY</v>
+      <c r="A1" s="1" t="str">
+        <v>/ - FEMALE , # - 0.229 , @ - 0.5042 , * - 5045 , ADC - ADMISSION CANCELLED , RR - RESERVED , -: Fails in Theory or Practical , RPV - PROVISIONAL , RCC - 0.5050 , A,ABS - ABSENT , F* - FAILS , P - PASSES , NULL - NULL &amp; VOID</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
-        <v xml:space="preserve"> UNIVERSITY OF MUMBAI</v>
+      <c r="A2" s="1" t="str">
+        <v>RPV - PROVISIONAL , RCC - 0.5050 , A,ABS - ABSENT , F* - FAILS , P - PASSES , NULL - NULL &amp; VOID</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="str">
-        <v>Results of the Second Year Engineering(SEMESTER:IV)(CREDIT BASED GRADING SYSTEM) Examination in the branch of ELECTRONICS AND TELECOMMUNICATION , held in December  2017</v>
+      <c r="A3" s="1" t="str">
+        <v>G:grade     GP:gradepoints      C:credits       CP:credits points       ∑CG:sum of product of credits &amp; grades      ∑C:sum of credits points        GPA:∑CG / ∑C</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="str">
-        <v>COURSE I:ETS401     :Applied Mathematics IV</v>
-      </c>
-      <c r="C4" t="str">
-        <v>COURSE II:ETC402     :Analog Electronics II</v>
-      </c>
-      <c r="E4" t="str">
-        <v>COURSE III:ETC403     :Microprocessors and Peripherals</v>
+      <c r="A4" s="1" t="str">
+        <v>MARKS               : &gt;=80              &gt;=75 and &lt;80            &gt;=70 and &lt;75            &gt;=60 and &lt;70            &gt;=50 and &lt;60            &gt;=45 and &lt;50            &gt;=40 and &lt;45            &lt;40</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="str">
-        <v>COURSE IV:ETC404     :Wave Theory and Propagation</v>
-      </c>
-      <c r="C5" t="str">
-        <v>COURSE V:ETC405     :Signals and Systems</v>
-      </c>
-      <c r="E5" t="str">
-        <v>COURSE VI:ETC406     :Control Systems</v>
+      <c r="A5" s="1" t="str">
+        <v>GRADE               :    O                              A                                   B                                   C                                   D                                   E                                   P                           F</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="str">
-        <v>COURSE VII:ETL401     :Analog Electronics II Laboratory</v>
-      </c>
-      <c r="C6" t="str">
-        <v>COURSE VIII:ETL402     :Microprocessors and Peripherals Laboratory</v>
-      </c>
-      <c r="E6" t="str">
-        <v>COURSE IX:ETL403     :Software Simulation Laboratory</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="C7" t="str">
-        <v>&lt;------Course I------&gt;</v>
-      </c>
-      <c r="D7" t="str">
-        <v>&lt;------Course II------&gt;</v>
-      </c>
-      <c r="E7" t="str">
-        <v>&lt;------Course III------&gt;</v>
-      </c>
-      <c r="F7" t="str">
-        <v>&lt;------Course IV------&gt;</v>
+      <c r="A6" s="1" t="str">
+        <v>GRADE POINT :  10                               9                                   8                                    7                                    6                                   5                                   4                           0</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" t="str">
-        <v>THEORY</v>
-      </c>
-      <c r="C8" t="str">
-        <v>80/32   20/8   100 C G GP C*GP</v>
-      </c>
-      <c r="D8" t="str">
-        <v>80/32   20/8   100 C G GP C*GP</v>
-      </c>
-      <c r="E8" t="str">
-        <v>80/32   20/8   100 C G GP C*GP</v>
-      </c>
-      <c r="F8" t="str">
-        <v>80/32   20/8   100 C G GP C*GP</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" t="str">
-        <v>TERMWORK/ORAL</v>
-      </c>
-      <c r="C9" t="str">
-        <v>25/10   C G GP C*GP</v>
+      <c r="A8" s="1" t="str">
+        <v>RESULT PREPARED BY : ________________________________________</v>
+      </c>
+      <c r="E8" s="1" t="str">
+        <v>RESULT CHECKED BY : ________________________________________</v>
+      </c>
+      <c r="H8" s="1" t="str">
+        <v>PRINCIPAL</v>
       </c>
     </row>
     <row r="10">
-      <c r="C10" t="str">
-        <v>&lt;------Course V------&gt;</v>
-      </c>
-      <c r="D10" t="str">
-        <v>&lt;------Course VI------&gt;</v>
-      </c>
-      <c r="E10" t="str">
-        <v>&lt;------Course VII------&gt;</v>
-      </c>
-      <c r="F10" t="str">
-        <v>&lt;------Course VIII------&gt;</v>
-      </c>
-      <c r="G10" t="str">
-        <v>&lt;------Course IX------&gt;</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" t="str">
-        <v>THEORY</v>
-      </c>
-      <c r="C11" t="str">
-        <v>80/32   20/8   100 C G GP C*GP</v>
-      </c>
-      <c r="D11" t="str">
-        <v>80/32   20/8   100 C G GP C*GP</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" t="str">
-        <v>TERMWORK/ORAL</v>
-      </c>
-      <c r="C12" t="str">
-        <v>25/10   C G GP C*GP</v>
-      </c>
-      <c r="E12" t="str">
-        <v>25/10  25/10    50 C G GP C*GP</v>
-      </c>
-      <c r="F12" t="str">
-        <v>25/10  25/10    50 C G GP C*GP</v>
-      </c>
-      <c r="G12" t="str">
-        <v>25/10  25/10    50 C G GP C*GP</v>
-      </c>
-      <c r="H12" t="str">
-        <v>∑C</v>
-      </c>
-      <c r="I12" t="str">
-        <v>∑CG</v>
-      </c>
-      <c r="J12" t="str">
-        <v>GPA</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14">
-        <v>43009</v>
-      </c>
-      <c r="C14" t="str">
-        <v xml:space="preserve">11 F (F)  9 + (E)  - - - - - </v>
-      </c>
-      <c r="D14" t="str">
-        <v xml:space="preserve">6 F (F)  14 + (B)  - - - - - </v>
-      </c>
-      <c r="E14" t="str">
-        <v xml:space="preserve">32 E (P)  12 E (C)  44 4 (P) 4 16 </v>
-      </c>
-      <c r="F14" t="str">
-        <v xml:space="preserve">33 E (P)  10 E (D)  43 4 (P) 4 16 </v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="C15" t="str">
-        <v xml:space="preserve">10 + (P) 1  4 4 </v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="C16" t="str">
-        <v xml:space="preserve">36 + (E)  9 + (E)  45 3 (E) 5 15 </v>
-      </c>
-      <c r="D16" t="str">
-        <v xml:space="preserve">32 + (P)  9 + (E)  41 4 (P) 4 16 </v>
-      </c>
-      <c r="I16" t="str">
-        <v xml:space="preserve">F </v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="C17" t="str">
-        <v xml:space="preserve">14 + (D) 1  6 6 </v>
-      </c>
-      <c r="E17" t="str">
-        <v xml:space="preserve">15 + (C) 19 + (A) 34 1 C 7 7 </v>
-      </c>
-      <c r="F17" t="str">
-        <v xml:space="preserve">17 + (C) 13 + (D) 30 1 C 7 7 </v>
-      </c>
-      <c r="G17" t="str">
-        <v xml:space="preserve">15 + (C) 15 + (C) 30 1 C 7 7 </v>
-      </c>
-      <c r="H17">
-        <v>20</v>
-      </c>
-      <c r="I17">
-        <v>94</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19">
-        <v>43010</v>
-      </c>
-      <c r="C19" t="str">
-        <v xml:space="preserve">7 F (F)  4 F (F)  - - - - - </v>
-      </c>
-      <c r="D19" t="str">
-        <v xml:space="preserve">34 + (P)  8 + (P)  42 4 (P) 4 16 </v>
-      </c>
-      <c r="E19" t="str">
-        <v xml:space="preserve">20 F (F)  11 + (D)  - - - - - </v>
-      </c>
-      <c r="F19" t="str">
-        <v xml:space="preserve">- AB (F)  - AB (F)  - - - - - </v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="C20" t="str">
-        <v xml:space="preserve">10 + (P) 1  4 4 </v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="C21" t="str">
-        <v xml:space="preserve">33 + (P)  15 E (A)  48 3 (E) 5 15 </v>
-      </c>
-      <c r="D21" t="str">
-        <v xml:space="preserve">- AB (F)  9 + (E)  - - - - - </v>
-      </c>
-      <c r="I21" t="str">
-        <v xml:space="preserve">F </v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="C22" t="str">
-        <v xml:space="preserve">11 + (P) 1  4 4 </v>
-      </c>
-      <c r="E22" t="str">
-        <v xml:space="preserve">18 + (B) 20 + (O) 38 1 A 9 9 </v>
-      </c>
-      <c r="F22" t="str">
-        <v xml:space="preserve">16 + (C) 17 + (C) 33 1 C 7 7 </v>
-      </c>
-      <c r="G22" t="str">
-        <v xml:space="preserve">19 + (A) 14 + (D) 33 1 C 7 7 </v>
-      </c>
-      <c r="H22">
-        <v>12</v>
-      </c>
-      <c r="I22">
-        <v>62</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24">
-        <v>43011</v>
-      </c>
-      <c r="C24" t="str">
-        <v xml:space="preserve">- AB (F)  12 + (C)  - - - - - </v>
-      </c>
-      <c r="D24" t="str">
-        <v xml:space="preserve">- AB (F)  8 + (P)  - - - - - </v>
-      </c>
-      <c r="E24" t="str">
-        <v xml:space="preserve">- AB (F)  9 + (E)  - - - - - </v>
-      </c>
-      <c r="F24" t="str">
-        <v xml:space="preserve">- AB (F)  13 + (C)  - - - - - </v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="C25" t="str">
-        <v xml:space="preserve">10 + (P) 1  4 4 </v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="C26" t="str">
-        <v xml:space="preserve">- AB (F)  8 + (P)  - - - - - </v>
-      </c>
-      <c r="D26" t="str">
-        <v xml:space="preserve">37 + (E)  8 + (P)  45 4 (E) 5 20 </v>
-      </c>
-      <c r="I26" t="str">
-        <v xml:space="preserve">F </v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="C27" t="str">
-        <v xml:space="preserve">14 + (D) 1  6 6 </v>
-      </c>
-      <c r="E27" t="str">
-        <v xml:space="preserve">18 + (B) 12 + (E) 30 1 C 7 7 </v>
-      </c>
-      <c r="F27" t="str">
-        <v xml:space="preserve">18 + (B) 14 + (D) 32 1 C 7 7 </v>
-      </c>
-      <c r="G27" t="str">
-        <v xml:space="preserve">14 + (D) 17 + (C) 31 1 C 7 7 </v>
-      </c>
-      <c r="H27">
-        <v>9</v>
-      </c>
-      <c r="I27">
-        <v>51</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29">
-        <v>43012</v>
-      </c>
-      <c r="C29" t="str">
-        <v xml:space="preserve">44  (D)  8 + (P)  52 4 (D) 6 24 </v>
-      </c>
-      <c r="D29" t="str">
-        <v xml:space="preserve">44 + (D)  11 + (D)  55 4 (D) 6 24 </v>
-      </c>
-      <c r="E29" t="str">
-        <v xml:space="preserve">32 + (P)  14 + (B)  46 4 (E) 5 20 </v>
-      </c>
-      <c r="F29" t="str">
-        <v xml:space="preserve">34 + (P)  12 + (C)  46 4 (E) 5 20 </v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="C30" t="str">
-        <v xml:space="preserve">11 + (P) 1  4 4 </v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="C31" t="str">
-        <v xml:space="preserve">38 + (E)  13 + (C)  51 3 (D) 6 18 </v>
-      </c>
-      <c r="D31" t="str">
-        <v xml:space="preserve">48 + (C)  16 + (O)  64 4 (C) 7 28 </v>
-      </c>
-      <c r="I31" t="str">
-        <v xml:space="preserve">P </v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="C32" t="str">
-        <v xml:space="preserve">18 + (B) 1  8 8 </v>
-      </c>
-      <c r="E32" t="str">
-        <v xml:space="preserve">19 + (A) 23 + (O) 42 1 O 10 10 </v>
-      </c>
-      <c r="F32" t="str">
-        <v xml:space="preserve">23 + (O) 22 + (O) 45 1 O 10 10 </v>
-      </c>
-      <c r="G32" t="str">
-        <v xml:space="preserve">16 + (C) 21 + (O) 37 1 B 8 8 </v>
-      </c>
-      <c r="H32">
-        <v>28</v>
-      </c>
-      <c r="I32">
-        <v>174</v>
-      </c>
-      <c r="J32">
-        <v>6.21</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34">
-        <v>43013</v>
-      </c>
-      <c r="C34" t="str">
-        <v xml:space="preserve">33  (P)  11  (D)  44 4 (P) 4 16 </v>
-      </c>
-      <c r="D34" t="str">
-        <v xml:space="preserve">52 + (C)  12 + (C)  64 4 (C) 7 28 </v>
-      </c>
-      <c r="E34" t="str">
-        <v xml:space="preserve">42 + (D)  12 + (C)  54 4 (D) 6 24 </v>
-      </c>
-      <c r="F34" t="str">
-        <v xml:space="preserve">34 + (P)  8 + (P)  42 4 (P) 4 16 </v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="C35" t="str">
-        <v xml:space="preserve">11 + (P) 1  4 4 </v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="C36" t="str">
-        <v xml:space="preserve">38 + (E)  13 + (C)  51 3 (D) 6 18 </v>
-      </c>
-      <c r="D36" t="str">
-        <v xml:space="preserve">36 + (E)  11 + (D)  47 4 (E) 5 20 </v>
-      </c>
-      <c r="I36" t="str">
-        <v xml:space="preserve">P </v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="C37" t="str">
-        <v xml:space="preserve">19 + (A) 1  9 9 </v>
-      </c>
-      <c r="E37" t="str">
-        <v xml:space="preserve">24 + (O) 23 + (O) 47 1 O 10 10 </v>
-      </c>
-      <c r="F37" t="str">
-        <v xml:space="preserve">21 + (O) 23 + (O) 44 1 O 10 10 </v>
-      </c>
-      <c r="G37" t="str">
-        <v xml:space="preserve">22 + (O) 18 + (B) 40 1 O 10 10 </v>
-      </c>
-      <c r="H37">
-        <v>28</v>
-      </c>
-      <c r="I37">
-        <v>165</v>
-      </c>
-      <c r="J37">
-        <v>5.89</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39">
-        <v>43014</v>
-      </c>
-      <c r="C39" t="str">
-        <v xml:space="preserve">12 F (F)  5 F (F)  - - - - - </v>
-      </c>
-      <c r="D39" t="str">
-        <v xml:space="preserve">8 F (F)  8 + (P)  - - - - - </v>
-      </c>
-      <c r="E39" t="str">
-        <v xml:space="preserve">- AB (F)  13 + (C)  - - - - - </v>
-      </c>
-      <c r="F39" t="str">
-        <v xml:space="preserve">22 F (F)  12 E (C)  - - - - - </v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="C40" t="str">
-        <v xml:space="preserve">10 + (P) 1  4 4 </v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="C41" t="str">
-        <v xml:space="preserve">54 + (C)  10 + (D)  64 3 (C) 7 21 </v>
-      </c>
-      <c r="D41" t="str">
-        <v xml:space="preserve">5 F (F)  8 + (P)  - - - - - </v>
-      </c>
-      <c r="I41" t="str">
-        <v xml:space="preserve">F </v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="C42" t="str">
-        <v xml:space="preserve">19 + (A) 1  9 9 </v>
-      </c>
-      <c r="E42" t="str">
-        <v xml:space="preserve">16 + (C) 16 + (C) 32 1 C 7 7 </v>
-      </c>
-      <c r="F42" t="str">
-        <v xml:space="preserve">20 + (O) 15 + (C) 35 1 B 8 8 </v>
-      </c>
-      <c r="G42" t="str">
-        <v xml:space="preserve">21 + (O) 15 + (C) 36 1 B 8 8 </v>
-      </c>
-      <c r="H42">
-        <v>8</v>
-      </c>
-      <c r="I42">
-        <v>57</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44">
-        <v>43015</v>
-      </c>
-      <c r="C44" t="str">
-        <v xml:space="preserve">32 E (P)  8 + (P)  40 4 (P) 4 16 </v>
-      </c>
-      <c r="D44" t="str">
-        <v xml:space="preserve">32 + (P)  11 + (D)  43 4 (P) 4 16 </v>
-      </c>
-      <c r="E44" t="str">
-        <v xml:space="preserve">- AB (F)  11 + (D)  - - - - - </v>
-      </c>
-      <c r="F44" t="str">
-        <v xml:space="preserve">25 F (F)  11 E (D)  - - - - - </v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="C45" t="str">
-        <v xml:space="preserve">10 + (P) 1  4 4 </v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="C46" t="str">
-        <v xml:space="preserve">35 + (P)  13 + (C)  48 3 (E) 5 15 </v>
-      </c>
-      <c r="D46" t="str">
-        <v xml:space="preserve">47 + (D)  10 + (D)  57 4 (D) 6 24 </v>
-      </c>
-      <c r="I46" t="str">
-        <v xml:space="preserve">F </v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="C47" t="str">
-        <v xml:space="preserve">12 + (E) 1  5 5 </v>
-      </c>
-      <c r="E47" t="str">
-        <v xml:space="preserve">20 + (O) 19 + (A) 39 1 A 9 9 </v>
-      </c>
-      <c r="F47" t="str">
-        <v xml:space="preserve">19 + (A) 17 + (C) 36 1 B 8 8 </v>
-      </c>
-      <c r="G47" t="str">
-        <v xml:space="preserve">14 + (D) 19 + (A) 33 1 C 7 7 </v>
-      </c>
-      <c r="H47">
-        <v>20</v>
-      </c>
-      <c r="I47">
-        <v>104</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49">
-        <v>43016</v>
-      </c>
-      <c r="C49" t="str">
-        <v xml:space="preserve">37 + (E)  15 + (A)  52 4 (D) 6 24 </v>
-      </c>
-      <c r="D49" t="str">
-        <v xml:space="preserve">32 + (P)  9 + (E)  41 4 (P) 4 16 </v>
-      </c>
-      <c r="E49" t="str">
-        <v xml:space="preserve">32 + (P)  11 + (D)  43 4 (P) 4 16 </v>
-      </c>
-      <c r="F49" t="str">
-        <v xml:space="preserve">14 F (F)  9 + (E)  - - - - - </v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="C50" t="str">
-        <v xml:space="preserve">13 + (D) 1  6 6 </v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="C51" t="str">
-        <v xml:space="preserve">- AB (F)  9 + (E)  - - - - - </v>
-      </c>
-      <c r="D51" t="str">
-        <v xml:space="preserve">32 + (P)  9 + (E)  41 4 (P) 4 16 </v>
-      </c>
-      <c r="I51" t="str">
-        <v xml:space="preserve">F </v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="C52" t="str">
-        <v xml:space="preserve">15 + (C) 1  7 7 </v>
-      </c>
-      <c r="E52" t="str">
-        <v xml:space="preserve">19 + (A) 19 + (A) 38 1 A 9 9 </v>
-      </c>
-      <c r="F52" t="str">
-        <v xml:space="preserve">18 + (B) 23 + (O) 41 1 O 10 10 </v>
-      </c>
-      <c r="G52" t="str">
-        <v xml:space="preserve">21 + (O) 22 + (O) 43 1 O 10 10 </v>
-      </c>
-      <c r="H52">
-        <v>21</v>
-      </c>
-      <c r="I52">
-        <v>114</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="str">
-        <v>/ - FEMALE , # - 0.229 , @ - 0.5042 , * - 5045 , ADC - ADMISSION CANCELLED , RR - RESERVED , -: Fails in Theory or Practical , RPV - PROVISIONAL , RCC - 0.5050 , A,ABS - ABSENT , F* - FAILS , P - PASSES , NULL - NULL &amp; VOID</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="str">
-        <v>RPV - PROVISIONAL , RCC - 0.5050 , A,ABS - ABSENT , F* - FAILS , P - PASSES , NULL - NULL &amp; VOID</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="str">
-        <v>G:grade     GP:gradepoints      C:credits       CP:credits points       ∑CG:sum of product of credits &amp; grades      ∑C:sum of credits points        GPA:∑CG / ∑C</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="str">
-        <v>MARKS               : &gt;=80              &gt;=75 and &lt;80            &gt;=70 and &lt;75            &gt;=60 and &lt;70            &gt;=50 and &lt;60            &gt;=45 and &lt;50            &gt;=40 and &lt;45            &lt;40</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="str">
-        <v>GRADE               :    O                              A                                   B                                   C                                   D                                   E                                   P                           F</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="str">
-        <v>GRADE POINT :  10                               9                                   8                                    7                                    6                                   5                                   4                           0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="str">
-        <v>RESULT PREPARED BY : ________________________________________</v>
-      </c>
-      <c r="E61" t="str">
-        <v>RESULT CHECKED BY : ________________________________________</v>
-      </c>
-      <c r="H61" t="str">
-        <v>PRINCIPAL</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="str">
+      <c r="A10" s="1" t="str">
         <v>RESULT DATE : 30.12.2017</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="H61:L61"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="A54:L54"/>
-    <mergeCell ref="A55:L55"/>
-    <mergeCell ref="A56:L56"/>
-    <mergeCell ref="A57:L57"/>
-    <mergeCell ref="A58:L58"/>
-    <mergeCell ref="A59:L59"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
+  <mergeCells count="11">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="E10:G10"/>
   </mergeCells>
-  <pageMargins left="0.7000000000000001" right="0.7000000000000001" top="0.75" bottom="0.75" header="0.5118110236220472" footer="0.5118110236220472"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L63"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L10"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1770,667 +912,667 @@
   </sheetViews>
   <sheetData>
     <row r="1">
-      <c r="A1" t="str">
+      <c r="A1" s="1" t="str">
         <v>ST. FRANCIS INSTITUTE OF TECHNOLOGY</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
+      <c r="A2" s="1" t="str">
         <v xml:space="preserve"> UNIVERSITY OF MUMBAI</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="str">
+      <c r="A3" s="1" t="str">
         <v>Results of the Second Year Engineering(SEMESTER:IV)(CREDIT BASED GRADING SYSTEM) Examination in the branch of ELECTRONICS AND TELECOMMUNICATION , held in December  2017</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="str">
+      <c r="A4" s="1" t="str">
         <v>COURSE I:ETS401     :Applied Mathematics IV</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C4" s="1" t="str">
         <v>COURSE II:ETC402     :Analog Electronics II</v>
       </c>
-      <c r="E4" t="str">
+      <c r="E4" s="1" t="str">
         <v>COURSE III:ETC403     :Microprocessors and Peripherals</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="str">
+      <c r="A5" s="1" t="str">
         <v>COURSE IV:ETC404     :Wave Theory and Propagation</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C5" s="1" t="str">
         <v>COURSE V:ETC405     :Signals and Systems</v>
       </c>
-      <c r="E5" t="str">
+      <c r="E5" s="1" t="str">
         <v>COURSE VI:ETC406     :Control Systems</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="str">
+      <c r="A6" s="1" t="str">
         <v>COURSE VII:ETL401     :Analog Electronics II Laboratory</v>
       </c>
-      <c r="C6" t="str">
+      <c r="C6" s="1" t="str">
         <v>COURSE VIII:ETL402     :Microprocessors and Peripherals Laboratory</v>
       </c>
-      <c r="E6" t="str">
+      <c r="E6" s="1" t="str">
         <v>COURSE IX:ETL403     :Software Simulation Laboratory</v>
       </c>
     </row>
     <row r="7">
-      <c r="C7" t="str">
+      <c r="C7" s="1" t="str">
         <v>&lt;------Course I------&gt;</v>
       </c>
-      <c r="D7" t="str">
+      <c r="D7" s="1" t="str">
         <v>&lt;------Course II------&gt;</v>
       </c>
-      <c r="E7" t="str">
+      <c r="E7" s="1" t="str">
         <v>&lt;------Course III------&gt;</v>
       </c>
-      <c r="F7" t="str">
+      <c r="F7" s="1" t="str">
         <v>&lt;------Course IV------&gt;</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" t="str">
+      <c r="B8" s="1" t="str">
         <v>THEORY</v>
       </c>
-      <c r="C8" t="str">
+      <c r="C8" s="1" t="str">
         <v>80/32   20/8   100 C G GP C*GP</v>
       </c>
-      <c r="D8" t="str">
+      <c r="D8" s="1" t="str">
         <v>80/32   20/8   100 C G GP C*GP</v>
       </c>
-      <c r="E8" t="str">
+      <c r="E8" s="1" t="str">
         <v>80/32   20/8   100 C G GP C*GP</v>
       </c>
-      <c r="F8" t="str">
+      <c r="F8" s="1" t="str">
         <v>80/32   20/8   100 C G GP C*GP</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" t="str">
+      <c r="B9" s="1" t="str">
         <v>TERMWORK/ORAL</v>
       </c>
-      <c r="C9" t="str">
+      <c r="C9" s="1" t="str">
         <v>25/10   C G GP C*GP</v>
       </c>
     </row>
     <row r="10">
-      <c r="C10" t="str">
+      <c r="C10" s="1" t="str">
         <v>&lt;------Course V------&gt;</v>
       </c>
-      <c r="D10" t="str">
+      <c r="D10" s="1" t="str">
         <v>&lt;------Course VI------&gt;</v>
       </c>
-      <c r="E10" t="str">
+      <c r="E10" s="1" t="str">
         <v>&lt;------Course VII------&gt;</v>
       </c>
-      <c r="F10" t="str">
+      <c r="F10" s="1" t="str">
         <v>&lt;------Course VIII------&gt;</v>
       </c>
-      <c r="G10" t="str">
+      <c r="G10" s="1" t="str">
         <v>&lt;------Course IX------&gt;</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="str">
+      <c r="B11" s="1" t="str">
         <v>THEORY</v>
       </c>
-      <c r="C11" t="str">
+      <c r="C11" s="1" t="str">
         <v>80/32   20/8   100 C G GP C*GP</v>
       </c>
-      <c r="D11" t="str">
+      <c r="D11" s="1" t="str">
         <v>80/32   20/8   100 C G GP C*GP</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="str">
+      <c r="B12" s="1" t="str">
         <v>TERMWORK/ORAL</v>
       </c>
-      <c r="C12" t="str">
+      <c r="C12" s="1" t="str">
         <v>25/10   C G GP C*GP</v>
       </c>
-      <c r="E12" t="str">
+      <c r="E12" s="1" t="str">
         <v>25/10  25/10    50 C G GP C*GP</v>
       </c>
-      <c r="F12" t="str">
+      <c r="F12" s="1" t="str">
         <v>25/10  25/10    50 C G GP C*GP</v>
       </c>
-      <c r="G12" t="str">
+      <c r="G12" s="1" t="str">
         <v>25/10  25/10    50 C G GP C*GP</v>
       </c>
-      <c r="H12" t="str">
+      <c r="H12" s="1" t="str">
         <v>∑C</v>
       </c>
-      <c r="I12" t="str">
+      <c r="I12" s="1" t="str">
         <v>∑CG</v>
       </c>
-      <c r="J12" t="str">
+      <c r="J12" s="1" t="str">
         <v>GPA</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>43017</v>
       </c>
-      <c r="C14" t="str">
+      <c r="C14" s="1" t="str">
         <v xml:space="preserve">21 F (F)  8 + (P)  - - - - - </v>
       </c>
-      <c r="D14" t="str">
+      <c r="D14" s="1" t="str">
         <v xml:space="preserve">35 + (P)  11 + (D)  46 4 (E) 5 20 </v>
       </c>
-      <c r="E14" t="str">
+      <c r="E14" s="1" t="str">
         <v xml:space="preserve">47 + (D)  15 + (A)  62 4 (C) 7 28 </v>
       </c>
-      <c r="F14" t="str">
+      <c r="F14" s="1" t="str">
         <v xml:space="preserve">32 + (P)  8 E (P)  40 4 (P) 4 16 </v>
       </c>
     </row>
     <row r="15">
-      <c r="C15" t="str">
+      <c r="C15" s="1" t="str">
         <v xml:space="preserve">10 + (P) 1  4 4 </v>
       </c>
     </row>
     <row r="16">
-      <c r="C16" t="str">
+      <c r="C16" s="1" t="str">
         <v xml:space="preserve">32 + (P)  10 + (D)  42 3 (P) 4 12 </v>
       </c>
-      <c r="D16" t="str">
+      <c r="D16" s="1" t="str">
         <v xml:space="preserve">38 + (E)  10 + (D)  48 4 (E) 5 20 </v>
       </c>
-      <c r="I16" t="str">
+      <c r="I16" s="1" t="str">
         <v xml:space="preserve">F </v>
       </c>
     </row>
     <row r="17">
-      <c r="C17" t="str">
+      <c r="C17" s="1" t="str">
         <v xml:space="preserve">18 + (B) 1  8 8 </v>
       </c>
-      <c r="E17" t="str">
+      <c r="E17" s="1" t="str">
         <v xml:space="preserve">23 + (O) 24 + (O) 47 1 O 10 10 </v>
       </c>
-      <c r="F17" t="str">
+      <c r="F17" s="1" t="str">
         <v xml:space="preserve">21 + (O) 19 + (A) 40 1 O 10 10 </v>
       </c>
-      <c r="G17" t="str">
+      <c r="G17" s="1" t="str">
         <v xml:space="preserve">20 + (O) 16 + (C) 36 1 B 8 8 </v>
       </c>
-      <c r="H17">
+      <c r="H17" s="1">
         <v>24</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="1">
         <v>136</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>43018</v>
       </c>
-      <c r="C19" t="str">
+      <c r="C19" s="1" t="str">
         <v xml:space="preserve">32 + (P)  9 + (E)  41 4 (P) 4 16 </v>
       </c>
-      <c r="D19" t="str">
+      <c r="D19" s="1" t="str">
         <v xml:space="preserve">34 + (P)  10 + (D)  44 4 (P) 4 16 </v>
       </c>
-      <c r="E19" t="str">
+      <c r="E19" s="1" t="str">
         <v xml:space="preserve">33 + (P)  8 + (P)  41 4 (P) 4 16 </v>
       </c>
-      <c r="F19" t="str">
+      <c r="F19" s="1" t="str">
         <v xml:space="preserve">32 + (P)  8 + (P)  40 4 (P) 4 16 </v>
       </c>
     </row>
     <row r="20">
-      <c r="C20" t="str">
+      <c r="C20" s="1" t="str">
         <v xml:space="preserve">11 + (P) 1  4 4 </v>
       </c>
     </row>
     <row r="21">
-      <c r="C21" t="str">
+      <c r="C21" s="1" t="str">
         <v xml:space="preserve">35  (P)  8 + (P)  43 3 (P) 4 12 </v>
       </c>
-      <c r="D21" t="str">
+      <c r="D21" s="1" t="str">
         <v xml:space="preserve">32 + (P)  9 + (E)  41 4 (P) 4 16 </v>
       </c>
-      <c r="I21" t="str">
+      <c r="I21" s="1" t="str">
         <v xml:space="preserve">RS2 </v>
       </c>
     </row>
     <row r="22">
-      <c r="C22" t="str">
+      <c r="C22" s="1" t="str">
         <v xml:space="preserve">11 + (P) 1  4 4 </v>
       </c>
-      <c r="E22" t="str">
+      <c r="E22" s="1" t="str">
         <v xml:space="preserve">22 + (O) 18 + (B) 40 1 O 10 10 </v>
       </c>
-      <c r="F22" t="str">
+      <c r="F22" s="1" t="str">
         <v xml:space="preserve">17 + (C) 15 + (C) 32 1 C 7 7 </v>
       </c>
-      <c r="G22" t="str">
+      <c r="G22" s="1" t="str">
         <v xml:space="preserve">18 + (B) 18 + (B) 36 1 B 8 8 </v>
       </c>
-      <c r="H22">
+      <c r="H22" s="1">
         <v>28</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="1">
         <v>125</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="1">
         <v>4.46</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>43019</v>
       </c>
-      <c r="C24" t="str">
+      <c r="C24" s="1" t="str">
         <v xml:space="preserve">45 + (D)  11 + (D)  56 4 (D) 6 24 </v>
       </c>
-      <c r="D24" t="str">
+      <c r="D24" s="1" t="str">
         <v xml:space="preserve">37 + (E)  18 + (O)  55 4 (D) 6 24 </v>
       </c>
-      <c r="E24" t="str">
+      <c r="E24" s="1" t="str">
         <v xml:space="preserve">32  (P)  13 + (C)  45 4 (E) 5 20 </v>
       </c>
-      <c r="F24" t="str">
+      <c r="F24" s="1" t="str">
         <v xml:space="preserve">52 + (C)  14 + (B)  66 4 (C) 7 28 </v>
       </c>
     </row>
     <row r="25">
-      <c r="C25" t="str">
+      <c r="C25" s="1" t="str">
         <v xml:space="preserve">16 + (C) 1  7 7 </v>
       </c>
     </row>
     <row r="26">
-      <c r="C26" t="str">
+      <c r="C26" s="1" t="str">
         <v xml:space="preserve">37 + (E)  11 + (D)  48 3 (E) 5 15 </v>
       </c>
-      <c r="D26" t="str">
+      <c r="D26" s="1" t="str">
         <v xml:space="preserve">39 + (E)  9 + (E)  48 4 (E) 5 20 </v>
       </c>
-      <c r="I26" t="str">
+      <c r="I26" s="1" t="str">
         <v xml:space="preserve">P </v>
       </c>
     </row>
     <row r="27">
-      <c r="C27" t="str">
+      <c r="C27" s="1" t="str">
         <v xml:space="preserve">22 + (O) 1  10 10 </v>
       </c>
-      <c r="E27" t="str">
+      <c r="E27" s="1" t="str">
         <v xml:space="preserve">25 + (O) 23 + (O) 48 1 O 10 10 </v>
       </c>
-      <c r="F27" t="str">
+      <c r="F27" s="1" t="str">
         <v xml:space="preserve">20 + (O) 18 + (B) 38 1 A 9 9 </v>
       </c>
-      <c r="G27" t="str">
+      <c r="G27" s="1" t="str">
         <v xml:space="preserve">19 + (A) 22 + (O) 41 1 O 10 10 </v>
       </c>
-      <c r="H27">
+      <c r="H27" s="1">
         <v>28</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="1">
         <v>177</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="1">
         <v>6.32</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29">
+      <c r="A29" s="1">
         <v>43020</v>
       </c>
-      <c r="C29" t="str">
+      <c r="C29" s="1" t="str">
         <v xml:space="preserve">32 + (P)  15 E (A)  47 4 (E) 5 20 </v>
       </c>
-      <c r="D29" t="str">
+      <c r="D29" s="1" t="str">
         <v xml:space="preserve">38 + (E)  8 + (P)  46 4 (E) 5 20 </v>
       </c>
-      <c r="E29" t="str">
+      <c r="E29" s="1" t="str">
         <v xml:space="preserve">44 + (D)  8 + (P)  52 4 (D) 6 24 </v>
       </c>
-      <c r="F29" t="str">
+      <c r="F29" s="1" t="str">
         <v xml:space="preserve">33 E (P)  8 + (P)  41 4 (P) 4 16 </v>
       </c>
     </row>
     <row r="30">
-      <c r="C30" t="str">
+      <c r="C30" s="1" t="str">
         <v xml:space="preserve">10 + (P) 1  4 4 </v>
       </c>
     </row>
     <row r="31">
-      <c r="C31" t="str">
+      <c r="C31" s="1" t="str">
         <v xml:space="preserve">21 F (F)  13 + (C)  - - - - - </v>
       </c>
-      <c r="D31" t="str">
+      <c r="D31" s="1" t="str">
         <v xml:space="preserve">32 + (P)  8 + (P)  40 4 (P) 4 16 </v>
       </c>
-      <c r="I31" t="str">
+      <c r="I31" s="1" t="str">
         <v xml:space="preserve">F </v>
       </c>
     </row>
     <row r="32">
-      <c r="C32" t="str">
+      <c r="C32" s="1" t="str">
         <v xml:space="preserve">19 + (A) 1  9 9 </v>
       </c>
-      <c r="E32" t="str">
+      <c r="E32" s="1" t="str">
         <v xml:space="preserve">18 + (B) 15 + (C) 33 1 C 7 7 </v>
       </c>
-      <c r="F32" t="str">
+      <c r="F32" s="1" t="str">
         <v xml:space="preserve">17 + (C) 14 + (D) 31 1 C 7 7 </v>
       </c>
-      <c r="G32" t="str">
+      <c r="G32" s="1" t="str">
         <v xml:space="preserve">15 + (C) 14 + (D) 29 1 D 6 6 </v>
       </c>
-      <c r="H32">
+      <c r="H32" s="1">
         <v>25</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="1">
         <v>129</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34">
+      <c r="A34" s="1">
         <v>43021</v>
       </c>
-      <c r="C34" t="str">
+      <c r="C34" s="1" t="str">
         <v xml:space="preserve">41  (D)  8 + (P)  49 4 (E) 5 20 </v>
       </c>
-      <c r="D34" t="str">
+      <c r="D34" s="1" t="str">
         <v xml:space="preserve">32 + (P)  14 + (B)  46 4 (E) 5 20 </v>
       </c>
-      <c r="E34" t="str">
+      <c r="E34" s="1" t="str">
         <v xml:space="preserve">32  (P)  13 + (C)  45 4 (E) 5 20 </v>
       </c>
-      <c r="F34" t="str">
+      <c r="F34" s="1" t="str">
         <v xml:space="preserve">35  (P)  12 + (C)  47 4 (E) 5 20 </v>
       </c>
     </row>
     <row r="35">
-      <c r="C35" t="str">
+      <c r="C35" s="1" t="str">
         <v xml:space="preserve">13 + (D) 1  6 6 </v>
       </c>
     </row>
     <row r="36">
-      <c r="C36" t="str">
+      <c r="C36" s="1" t="str">
         <v xml:space="preserve">33 + (P)  12 + (C)  45 3 (E) 5 15 </v>
       </c>
-      <c r="D36" t="str">
+      <c r="D36" s="1" t="str">
         <v xml:space="preserve">32  (P)  15 + (A)  47 4 (E) 5 20 </v>
       </c>
-      <c r="I36" t="str">
+      <c r="I36" s="1" t="str">
         <v xml:space="preserve">P </v>
       </c>
     </row>
     <row r="37">
-      <c r="C37" t="str">
+      <c r="C37" s="1" t="str">
         <v xml:space="preserve">18 + (B) 1  8 8 </v>
       </c>
-      <c r="E37" t="str">
+      <c r="E37" s="1" t="str">
         <v xml:space="preserve">21 + (O) 22 + (O) 43 1 O 10 10 </v>
       </c>
-      <c r="F37" t="str">
+      <c r="F37" s="1" t="str">
         <v xml:space="preserve">17 + (C) 17 + (C) 34 1 C 7 7 </v>
       </c>
-      <c r="G37" t="str">
+      <c r="G37" s="1" t="str">
         <v xml:space="preserve">18 + (B) 20 + (O) 38 1 A 9 9 </v>
       </c>
-      <c r="H37">
+      <c r="H37" s="1">
         <v>28</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="1">
         <v>155</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="1">
         <v>5.54</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39">
+      <c r="A39" s="1">
         <v>43022</v>
       </c>
-      <c r="C39" t="str">
+      <c r="C39" s="1" t="str">
         <v xml:space="preserve">33  (P)  9 + (E)  42 4 (P) 4 16 </v>
       </c>
-      <c r="D39" t="str">
+      <c r="D39" s="1" t="str">
         <v xml:space="preserve">32  (P)  12 + (C)  44 4 (P) 4 16 </v>
       </c>
-      <c r="E39" t="str">
+      <c r="E39" s="1" t="str">
         <v xml:space="preserve">46 + (D)  10 + (D)  56 4 (D) 6 24 </v>
       </c>
-      <c r="F39" t="str">
+      <c r="F39" s="1" t="str">
         <v xml:space="preserve">35 + (P)  12 + (C)  47 4 (E) 5 20 </v>
       </c>
     </row>
     <row r="40">
-      <c r="C40" t="str">
+      <c r="C40" s="1" t="str">
         <v xml:space="preserve">11 + (P) 1  4 4 </v>
       </c>
     </row>
     <row r="41">
-      <c r="C41" t="str">
+      <c r="C41" s="1" t="str">
         <v xml:space="preserve">38 + (E)  14 + (B)  52 3 (D) 6 18 </v>
       </c>
-      <c r="D41" t="str">
+      <c r="D41" s="1" t="str">
         <v xml:space="preserve">32 + (P)  9 + (E)  41 4 (P) 4 16 </v>
       </c>
-      <c r="I41" t="str">
+      <c r="I41" s="1" t="str">
         <v xml:space="preserve">P </v>
       </c>
     </row>
     <row r="42">
-      <c r="C42" t="str">
+      <c r="C42" s="1" t="str">
         <v xml:space="preserve">18 + (B) 1  8 8 </v>
       </c>
-      <c r="E42" t="str">
+      <c r="E42" s="1" t="str">
         <v xml:space="preserve">20 + (O) 20 + (O) 40 1 O 10 10 </v>
       </c>
-      <c r="F42" t="str">
+      <c r="F42" s="1" t="str">
         <v xml:space="preserve">18 + (B) 16 + (C) 34 1 C 7 7 </v>
       </c>
-      <c r="G42" t="str">
+      <c r="G42" s="1" t="str">
         <v xml:space="preserve">17 + (C) 18 + (B) 35 1 B 8 8 </v>
       </c>
-      <c r="H42">
+      <c r="H42" s="1">
         <v>28</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="1">
         <v>147</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="1">
         <v>5.25</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44">
+      <c r="A44" s="1">
         <v>43023</v>
       </c>
-      <c r="C44" t="str">
+      <c r="C44" s="1" t="str">
         <v xml:space="preserve">32  (P)  10 + (D)  42 4 (P) 4 16 </v>
       </c>
-      <c r="D44" t="str">
+      <c r="D44" s="1" t="str">
         <v xml:space="preserve">33  (P)  8 + (P)  41 4 (P) 4 16 </v>
       </c>
-      <c r="E44" t="str">
+      <c r="E44" s="1" t="str">
         <v xml:space="preserve">34 + (P)  8 + (P)  42 4 (P) 4 16 </v>
       </c>
-      <c r="F44" t="str">
+      <c r="F44" s="1" t="str">
         <v xml:space="preserve">32 + (P)  8 + (P)  40 4 (P) 4 16 </v>
       </c>
     </row>
     <row r="45">
-      <c r="C45" t="str">
+      <c r="C45" s="1" t="str">
         <v xml:space="preserve">10 + (P) 1  4 4 </v>
       </c>
     </row>
     <row r="46">
-      <c r="C46" t="str">
+      <c r="C46" s="1" t="str">
         <v xml:space="preserve">32 + (P)  10 + (D)  42 3 (P) 4 12 </v>
       </c>
-      <c r="D46" t="str">
+      <c r="D46" s="1" t="str">
         <v xml:space="preserve">32 + (P)  12 + (C)  44 4 (P) 4 16 </v>
       </c>
-      <c r="I46" t="str">
+      <c r="I46" s="1" t="str">
         <v xml:space="preserve">RS1 , 3 </v>
       </c>
     </row>
     <row r="47">
-      <c r="C47" t="str">
+      <c r="C47" s="1" t="str">
         <v xml:space="preserve">18 + (B) 1  8 8 </v>
       </c>
-      <c r="E47" t="str">
+      <c r="E47" s="1" t="str">
         <v xml:space="preserve">20 + (O) 18 + (B) 38 1 A 9 9 </v>
       </c>
-      <c r="F47" t="str">
+      <c r="F47" s="1" t="str">
         <v xml:space="preserve">15 + (C) 18 + (B) 33 1 C 7 7 </v>
       </c>
-      <c r="G47" t="str">
+      <c r="G47" s="1" t="str">
         <v xml:space="preserve">15 + (C) 15 + (C) 30 1 C 7 7 </v>
       </c>
-      <c r="H47">
+      <c r="H47" s="1">
         <v>28</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="1">
         <v>127</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="1">
         <v>4.54</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49">
+      <c r="A49" s="1">
         <v>43024</v>
       </c>
-      <c r="C49" t="str">
+      <c r="C49" s="1" t="str">
         <v xml:space="preserve">33 + (P)  10 + (D)  43 4 (P) 4 16 </v>
       </c>
-      <c r="D49" t="str">
+      <c r="D49" s="1" t="str">
         <v xml:space="preserve">32 + (P)  10 + (D)  42 4 (P) 4 16 </v>
       </c>
-      <c r="E49" t="str">
+      <c r="E49" s="1" t="str">
         <v xml:space="preserve">23 F (F)  11 + (D)  - - - - - </v>
       </c>
-      <c r="F49" t="str">
+      <c r="F49" s="1" t="str">
         <v xml:space="preserve">32 + (P)  8 + (P)  40 4 (P) 4 16 </v>
       </c>
     </row>
     <row r="50">
-      <c r="C50" t="str">
+      <c r="C50" s="1" t="str">
         <v xml:space="preserve">13 + (D) 1  6 6 </v>
       </c>
     </row>
     <row r="51">
-      <c r="C51" t="str">
+      <c r="C51" s="1" t="str">
         <v xml:space="preserve">37 + (E)  10 + (D)  47 3 (E) 5 15 </v>
       </c>
-      <c r="D51" t="str">
+      <c r="D51" s="1" t="str">
         <v xml:space="preserve">32 + (P)  10 + (D)  42 4 (P) 4 16 </v>
       </c>
-      <c r="I51" t="str">
+      <c r="I51" s="1" t="str">
         <v xml:space="preserve">F </v>
       </c>
     </row>
     <row r="52">
-      <c r="C52" t="str">
+      <c r="C52" s="1" t="str">
         <v xml:space="preserve">21 + (O) 1  10 10 </v>
       </c>
-      <c r="E52" t="str">
+      <c r="E52" s="1" t="str">
         <v xml:space="preserve">21 + (O) 19 + (A) 40 1 O 10 10 </v>
       </c>
-      <c r="F52" t="str">
+      <c r="F52" s="1" t="str">
         <v xml:space="preserve">19 + (A) 20 + (O) 39 1 A 9 9 </v>
       </c>
-      <c r="G52" t="str">
+      <c r="G52" s="1" t="str">
         <v xml:space="preserve">16 + (C) 18 + (B) 34 1 C 7 7 </v>
       </c>
-      <c r="H52">
+      <c r="H52" s="1">
         <v>24</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="1">
         <v>121</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="str">
+      <c r="A54" s="1" t="str">
         <v>/ - FEMALE , # - 0.229 , @ - 0.5042 , * - 5045 , ADC - ADMISSION CANCELLED , RR - RESERVED , -: Fails in Theory or Practical , RPV - PROVISIONAL , RCC - 0.5050 , A,ABS - ABSENT , F* - FAILS , P - PASSES , NULL - NULL &amp; VOID</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="str">
+      <c r="A55" s="1" t="str">
         <v>RPV - PROVISIONAL , RCC - 0.5050 , A,ABS - ABSENT , F* - FAILS , P - PASSES , NULL - NULL &amp; VOID</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="str">
+      <c r="A56" s="1" t="str">
         <v>G:grade     GP:gradepoints      C:credits       CP:credits points       ∑CG:sum of product of credits &amp; grades      ∑C:sum of credits points        GPA:∑CG / ∑C</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="str">
+      <c r="A57" s="1" t="str">
         <v>MARKS               : &gt;=80              &gt;=75 and &lt;80            &gt;=70 and &lt;75            &gt;=60 and &lt;70            &gt;=50 and &lt;60            &gt;=45 and &lt;50            &gt;=40 and &lt;45            &lt;40</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="str">
+      <c r="A58" s="1" t="str">
         <v>GRADE               :    O                              A                                   B                                   C                                   D                                   E                                   P                           F</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="str">
+      <c r="A59" s="1" t="str">
         <v>GRADE POINT :  10                               9                                   8                                    7                                    6                                   5                                   4                           0</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="str">
+      <c r="A61" s="1" t="str">
         <v>RESULT PREPARED BY : ________________________________________</v>
       </c>
-      <c r="E61" t="str">
+      <c r="E61" s="1" t="str">
         <v>RESULT CHECKED BY : ________________________________________</v>
       </c>
-      <c r="H61" t="str">
+      <c r="H61" s="1" t="str">
         <v>PRINCIPAL</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="str">
+      <c r="A63" s="1" t="str">
         <v>RESULT DATE : 30.12.2017</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="H61:L61"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
     <mergeCell ref="A54:L54"/>
     <mergeCell ref="A55:L55"/>
     <mergeCell ref="A56:L56"/>
     <mergeCell ref="A57:L57"/>
     <mergeCell ref="A58:L58"/>
     <mergeCell ref="A59:L59"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="H61:L61"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="E63:G63"/>
   </mergeCells>
-  <pageMargins left="0.7000000000000001" right="0.7000000000000001" top="0.75" bottom="0.75" header="0.5118110236220472" footer="0.5118110236220472"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <ignoredErrors>
     <ignoredError numberStoredAsText="1" sqref="A1:L63"/>
   </ignoredErrors>
@@ -2445,667 +1587,667 @@
   </sheetViews>
   <sheetData>
     <row r="1">
-      <c r="A1" t="str">
+      <c r="A1" s="1" t="str">
         <v>ST. FRANCIS INSTITUTE OF TECHNOLOGY</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
+      <c r="A2" s="1" t="str">
         <v xml:space="preserve"> UNIVERSITY OF MUMBAI</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="str">
+      <c r="A3" s="1" t="str">
         <v>Results of the Second Year Engineering(SEMESTER:IV)(CREDIT BASED GRADING SYSTEM) Examination in the branch of ELECTRONICS AND TELECOMMUNICATION , held in December  2017</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="str">
+      <c r="A4" s="1" t="str">
         <v>COURSE I:ETS401     :Applied Mathematics IV</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C4" s="1" t="str">
         <v>COURSE II:ETC402     :Analog Electronics II</v>
       </c>
-      <c r="E4" t="str">
+      <c r="E4" s="1" t="str">
         <v>COURSE III:ETC403     :Microprocessors and Peripherals</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="str">
+      <c r="A5" s="1" t="str">
         <v>COURSE IV:ETC404     :Wave Theory and Propagation</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C5" s="1" t="str">
         <v>COURSE V:ETC405     :Signals and Systems</v>
       </c>
-      <c r="E5" t="str">
+      <c r="E5" s="1" t="str">
         <v>COURSE VI:ETC406     :Control Systems</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="str">
+      <c r="A6" s="1" t="str">
         <v>COURSE VII:ETL401     :Analog Electronics II Laboratory</v>
       </c>
-      <c r="C6" t="str">
+      <c r="C6" s="1" t="str">
         <v>COURSE VIII:ETL402     :Microprocessors and Peripherals Laboratory</v>
       </c>
-      <c r="E6" t="str">
+      <c r="E6" s="1" t="str">
         <v>COURSE IX:ETL403     :Software Simulation Laboratory</v>
       </c>
     </row>
     <row r="7">
-      <c r="C7" t="str">
+      <c r="C7" s="1" t="str">
         <v>&lt;------Course I------&gt;</v>
       </c>
-      <c r="D7" t="str">
+      <c r="D7" s="1" t="str">
         <v>&lt;------Course II------&gt;</v>
       </c>
-      <c r="E7" t="str">
+      <c r="E7" s="1" t="str">
         <v>&lt;------Course III------&gt;</v>
       </c>
-      <c r="F7" t="str">
+      <c r="F7" s="1" t="str">
         <v>&lt;------Course IV------&gt;</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" t="str">
+      <c r="B8" s="1" t="str">
         <v>THEORY</v>
       </c>
-      <c r="C8" t="str">
+      <c r="C8" s="1" t="str">
         <v>80/32   20/8   100 C G GP C*GP</v>
       </c>
-      <c r="D8" t="str">
+      <c r="D8" s="1" t="str">
         <v>80/32   20/8   100 C G GP C*GP</v>
       </c>
-      <c r="E8" t="str">
+      <c r="E8" s="1" t="str">
         <v>80/32   20/8   100 C G GP C*GP</v>
       </c>
-      <c r="F8" t="str">
+      <c r="F8" s="1" t="str">
         <v>80/32   20/8   100 C G GP C*GP</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" t="str">
+      <c r="B9" s="1" t="str">
         <v>TERMWORK/ORAL</v>
       </c>
-      <c r="C9" t="str">
+      <c r="C9" s="1" t="str">
         <v>25/10   C G GP C*GP</v>
       </c>
     </row>
     <row r="10">
-      <c r="C10" t="str">
+      <c r="C10" s="1" t="str">
         <v>&lt;------Course V------&gt;</v>
       </c>
-      <c r="D10" t="str">
+      <c r="D10" s="1" t="str">
         <v>&lt;------Course VI------&gt;</v>
       </c>
-      <c r="E10" t="str">
+      <c r="E10" s="1" t="str">
         <v>&lt;------Course VII------&gt;</v>
       </c>
-      <c r="F10" t="str">
+      <c r="F10" s="1" t="str">
         <v>&lt;------Course VIII------&gt;</v>
       </c>
-      <c r="G10" t="str">
+      <c r="G10" s="1" t="str">
         <v>&lt;------Course IX------&gt;</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="str">
+      <c r="B11" s="1" t="str">
         <v>THEORY</v>
       </c>
-      <c r="C11" t="str">
+      <c r="C11" s="1" t="str">
         <v>80/32   20/8   100 C G GP C*GP</v>
       </c>
-      <c r="D11" t="str">
+      <c r="D11" s="1" t="str">
         <v>80/32   20/8   100 C G GP C*GP</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="str">
+      <c r="B12" s="1" t="str">
         <v>TERMWORK/ORAL</v>
       </c>
-      <c r="C12" t="str">
+      <c r="C12" s="1" t="str">
         <v>25/10   C G GP C*GP</v>
       </c>
-      <c r="E12" t="str">
+      <c r="E12" s="1" t="str">
         <v>25/10  25/10    50 C G GP C*GP</v>
       </c>
-      <c r="F12" t="str">
+      <c r="F12" s="1" t="str">
         <v>25/10  25/10    50 C G GP C*GP</v>
       </c>
-      <c r="G12" t="str">
+      <c r="G12" s="1" t="str">
         <v>25/10  25/10    50 C G GP C*GP</v>
       </c>
-      <c r="H12" t="str">
+      <c r="H12" s="1" t="str">
         <v>∑C</v>
       </c>
-      <c r="I12" t="str">
+      <c r="I12" s="1" t="str">
         <v>∑CG</v>
       </c>
-      <c r="J12" t="str">
+      <c r="J12" s="1" t="str">
         <v>GPA</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>43025</v>
       </c>
-      <c r="C14" t="str">
+      <c r="C14" s="1" t="str">
         <v xml:space="preserve">32  (P)  8 + (P)  40 4 (P) 4 16 </v>
       </c>
-      <c r="D14" t="str">
+      <c r="D14" s="1" t="str">
         <v xml:space="preserve">35 + (P)  9 + (E)  44 4 (P) 4 16 </v>
       </c>
-      <c r="E14" t="str">
+      <c r="E14" s="1" t="str">
         <v xml:space="preserve">39 + (E)  9 + (E)  48 4 (E) 5 20 </v>
       </c>
-      <c r="F14" t="str">
+      <c r="F14" s="1" t="str">
         <v xml:space="preserve">32 + (P)  9 + (E)  41 4 (P) 4 16 </v>
       </c>
     </row>
     <row r="15">
-      <c r="C15" t="str">
+      <c r="C15" s="1" t="str">
         <v xml:space="preserve">11 + (P) 1  4 4 </v>
       </c>
     </row>
     <row r="16">
-      <c r="C16" t="str">
+      <c r="C16" s="1" t="str">
         <v xml:space="preserve">38  (E)  11 + (D)  49 3 (E) 5 15 </v>
       </c>
-      <c r="D16" t="str">
+      <c r="D16" s="1" t="str">
         <v xml:space="preserve">32 + (P)  9 + (E)  41 4 (P) 4 16 </v>
       </c>
-      <c r="I16" t="str">
+      <c r="I16" s="1" t="str">
         <v xml:space="preserve">RS2 </v>
       </c>
     </row>
     <row r="17">
-      <c r="C17" t="str">
+      <c r="C17" s="1" t="str">
         <v xml:space="preserve">18 + (B) 1  8 8 </v>
       </c>
-      <c r="E17" t="str">
+      <c r="E17" s="1" t="str">
         <v xml:space="preserve">17 + (C) 18 + (B) 35 1 B 8 8 </v>
       </c>
-      <c r="F17" t="str">
+      <c r="F17" s="1" t="str">
         <v xml:space="preserve">15 + (C) 18 + (B) 33 1 C 7 7 </v>
       </c>
-      <c r="G17" t="str">
+      <c r="G17" s="1" t="str">
         <v xml:space="preserve">15 + (C) 15 + (C) 30 1 C 7 7 </v>
       </c>
-      <c r="H17">
+      <c r="H17" s="1">
         <v>28</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="1">
         <v>133</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="1">
         <v>4.75</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>43026</v>
       </c>
-      <c r="C19" t="str">
+      <c r="C19" s="1" t="str">
         <v xml:space="preserve">32 + (P)  8 + (P)  40 4 (P) 4 16 </v>
       </c>
-      <c r="D19" t="str">
+      <c r="D19" s="1" t="str">
         <v xml:space="preserve">46 + (D)  16 + (O)  62 4 (C) 7 28 </v>
       </c>
-      <c r="E19" t="str">
+      <c r="E19" s="1" t="str">
         <v xml:space="preserve">57 + (B)  16 + (O)  73 4 (B) 8 32 </v>
       </c>
-      <c r="F19" t="str">
+      <c r="F19" s="1" t="str">
         <v xml:space="preserve">38 + (E)  10 + (D)  48 4 (E) 5 20 </v>
       </c>
     </row>
     <row r="20">
-      <c r="C20" t="str">
+      <c r="C20" s="1" t="str">
         <v xml:space="preserve">12 + (E) 1  5 5 </v>
       </c>
     </row>
     <row r="21">
-      <c r="C21" t="str">
+      <c r="C21" s="1" t="str">
         <v xml:space="preserve">41  (D)  13 + (C)  54 3 (D) 6 18 </v>
       </c>
-      <c r="D21" t="str">
+      <c r="D21" s="1" t="str">
         <v xml:space="preserve">45 + (D)  12 + (C)  57 4 (D) 6 24 </v>
       </c>
-      <c r="I21" t="str">
+      <c r="I21" s="1" t="str">
         <v xml:space="preserve">P </v>
       </c>
     </row>
     <row r="22">
-      <c r="C22" t="str">
+      <c r="C22" s="1" t="str">
         <v xml:space="preserve">18 + (B) 1  8 8 </v>
       </c>
-      <c r="E22" t="str">
+      <c r="E22" s="1" t="str">
         <v xml:space="preserve">22 + (O) 18 + (B) 40 1 O 10 10 </v>
       </c>
-      <c r="F22" t="str">
+      <c r="F22" s="1" t="str">
         <v xml:space="preserve">20 + (O) 20 + (O) 40 1 O 10 10 </v>
       </c>
-      <c r="G22" t="str">
+      <c r="G22" s="1" t="str">
         <v xml:space="preserve">19 + (A) 19 + (A) 38 1 A 9 9 </v>
       </c>
-      <c r="H22">
+      <c r="H22" s="1">
         <v>28</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="1">
         <v>180</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="1">
         <v>6.43</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>43027</v>
       </c>
-      <c r="C24" t="str">
+      <c r="C24" s="1" t="str">
         <v xml:space="preserve">38  (E)  10 + (D)  48 4 (E) 5 20 </v>
       </c>
-      <c r="D24" t="str">
+      <c r="D24" s="1" t="str">
         <v xml:space="preserve">34 + (P)  14 + (B)  48 4 (E) 5 20 </v>
       </c>
-      <c r="E24" t="str">
+      <c r="E24" s="1" t="str">
         <v xml:space="preserve">40 + (D)  17 + (O)  57 4 (D) 6 24 </v>
       </c>
-      <c r="F24" t="str">
+      <c r="F24" s="1" t="str">
         <v xml:space="preserve">32 + (P)  8 + (P)  40 4 (P) 4 16 </v>
       </c>
     </row>
     <row r="25">
-      <c r="C25" t="str">
+      <c r="C25" s="1" t="str">
         <v xml:space="preserve">10 + (P) 1  4 4 </v>
       </c>
     </row>
     <row r="26">
-      <c r="C26" t="str">
+      <c r="C26" s="1" t="str">
         <v xml:space="preserve">39  (E)  12 + (C)  51 3 (D) 6 18 </v>
       </c>
-      <c r="D26" t="str">
+      <c r="D26" s="1" t="str">
         <v xml:space="preserve">32 + (P)  10 + (D)  42 4 (P) 4 16 </v>
       </c>
-      <c r="I26" t="str">
+      <c r="I26" s="1" t="str">
         <v xml:space="preserve">RS3 </v>
       </c>
     </row>
     <row r="27">
-      <c r="C27" t="str">
+      <c r="C27" s="1" t="str">
         <v xml:space="preserve">20 + (O) 1  10 10 </v>
       </c>
-      <c r="E27" t="str">
+      <c r="E27" s="1" t="str">
         <v xml:space="preserve">21 + (O) 18 + (B) 39 1 A 9 9 </v>
       </c>
-      <c r="F27" t="str">
+      <c r="F27" s="1" t="str">
         <v xml:space="preserve">18 + (B) 22 + (O) 40 1 O 10 10 </v>
       </c>
-      <c r="G27" t="str">
+      <c r="G27" s="1" t="str">
         <v xml:space="preserve">16 + (C) 20 + (O) 36 1 B 8 8 </v>
       </c>
-      <c r="H27">
+      <c r="H27" s="1">
         <v>28</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="1">
         <v>155</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="1">
         <v>5.54</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29">
+      <c r="A29" s="1">
         <v>43028</v>
       </c>
-      <c r="C29" t="str">
+      <c r="C29" s="1" t="str">
         <v xml:space="preserve">32  (P)  8 + (P)  40 4 (P) 4 16 </v>
       </c>
-      <c r="D29" t="str">
+      <c r="D29" s="1" t="str">
         <v xml:space="preserve">39 + (E)  13 + (C)  52 4 (D) 6 24 </v>
       </c>
-      <c r="E29" t="str">
+      <c r="E29" s="1" t="str">
         <v xml:space="preserve">32 + (P)  9 + (E)  41 4 (P) 4 16 </v>
       </c>
-      <c r="F29" t="str">
+      <c r="F29" s="1" t="str">
         <v xml:space="preserve">36 + (E)  11 + (D)  47 4 (E) 5 20 </v>
       </c>
     </row>
     <row r="30">
-      <c r="C30" t="str">
+      <c r="C30" s="1" t="str">
         <v xml:space="preserve">10 + (P) 1  4 4 </v>
       </c>
     </row>
     <row r="31">
-      <c r="C31" t="str">
+      <c r="C31" s="1" t="str">
         <v xml:space="preserve">35 + (P)  14 + (B)  49 3 (E) 5 15 </v>
       </c>
-      <c r="D31" t="str">
+      <c r="D31" s="1" t="str">
         <v xml:space="preserve">32  (P)  10 + (D)  42 4 (P) 4 16 </v>
       </c>
-      <c r="I31" t="str">
+      <c r="I31" s="1" t="str">
         <v xml:space="preserve">RS1 , 2 , 3 </v>
       </c>
     </row>
     <row r="32">
-      <c r="C32" t="str">
+      <c r="C32" s="1" t="str">
         <v xml:space="preserve">21 + (O) 1  10 10 </v>
       </c>
-      <c r="E32" t="str">
+      <c r="E32" s="1" t="str">
         <v xml:space="preserve">23 + (O) 22 + (O) 45 1 O 10 10 </v>
       </c>
-      <c r="F32" t="str">
+      <c r="F32" s="1" t="str">
         <v xml:space="preserve">18 + (B) 20 + (O) 38 1 A 9 9 </v>
       </c>
-      <c r="G32" t="str">
+      <c r="G32" s="1" t="str">
         <v xml:space="preserve">23 + (O) 21 + (O) 44 1 O 10 10 </v>
       </c>
-      <c r="H32">
+      <c r="H32" s="1">
         <v>28</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="1">
         <v>150</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="1">
         <v>5.36</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34">
+      <c r="A34" s="1">
         <v>43029</v>
       </c>
-      <c r="C34" t="str">
+      <c r="C34" s="1" t="str">
         <v xml:space="preserve">32  (P)  8 + (P)  40 4 (P) 4 16 </v>
       </c>
-      <c r="D34" t="str">
+      <c r="D34" s="1" t="str">
         <v xml:space="preserve">32 + (P)  9 + (E)  41 4 (P) 4 16 </v>
       </c>
-      <c r="E34" t="str">
+      <c r="E34" s="1" t="str">
         <v xml:space="preserve">32 + (P)  9 + (E)  41 4 (P) 4 16 </v>
       </c>
-      <c r="F34" t="str">
+      <c r="F34" s="1" t="str">
         <v xml:space="preserve">32 + (P)  13 + (C)  45 4 (E) 5 20 </v>
       </c>
     </row>
     <row r="35">
-      <c r="C35" t="str">
+      <c r="C35" s="1" t="str">
         <v xml:space="preserve">15 + (C) 1  7 7 </v>
       </c>
     </row>
     <row r="36">
-      <c r="C36" t="str">
+      <c r="C36" s="1" t="str">
         <v xml:space="preserve">32 + (P)  9 + (E)  41 3 (P) 4 12 </v>
       </c>
-      <c r="D36" t="str">
+      <c r="D36" s="1" t="str">
         <v xml:space="preserve">41 + (D)  8 + (P)  49 4 (E) 5 20 </v>
       </c>
-      <c r="I36" t="str">
+      <c r="I36" s="1" t="str">
         <v xml:space="preserve">RS3 </v>
       </c>
     </row>
     <row r="37">
-      <c r="C37" t="str">
+      <c r="C37" s="1" t="str">
         <v xml:space="preserve">18 + (B) 1  8 8 </v>
       </c>
-      <c r="E37" t="str">
+      <c r="E37" s="1" t="str">
         <v xml:space="preserve">20 + (O) 14 + (D) 34 1 C 7 7 </v>
       </c>
-      <c r="F37" t="str">
+      <c r="F37" s="1" t="str">
         <v xml:space="preserve">21 + (O) 12 + (E) 33 1 C 7 7 </v>
       </c>
-      <c r="G37" t="str">
+      <c r="G37" s="1" t="str">
         <v xml:space="preserve">18 + (B) 15 + (C) 33 1 C 7 7 </v>
       </c>
-      <c r="H37">
+      <c r="H37" s="1">
         <v>28</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="1">
         <v>136</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="1">
         <v>4.86</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39">
+      <c r="A39" s="1">
         <v>43030</v>
       </c>
-      <c r="C39" t="str">
+      <c r="C39" s="1" t="str">
         <v xml:space="preserve">53  (C)  8 + (P)  61 4 (C) 7 28 </v>
       </c>
-      <c r="D39" t="str">
+      <c r="D39" s="1" t="str">
         <v xml:space="preserve">32 + (P)  9 + (E)  41 4 (P) 4 16 </v>
       </c>
-      <c r="E39" t="str">
+      <c r="E39" s="1" t="str">
         <v xml:space="preserve">32 + (P)  8 + (P)  40 4 (P) 4 16 </v>
       </c>
-      <c r="F39" t="str">
+      <c r="F39" s="1" t="str">
         <v xml:space="preserve">32 + (P)  15 + (A)  47 4 (E) 5 20 </v>
       </c>
     </row>
     <row r="40">
-      <c r="C40" t="str">
+      <c r="C40" s="1" t="str">
         <v xml:space="preserve">14 + (D) 1  6 6 </v>
       </c>
     </row>
     <row r="41">
-      <c r="C41" t="str">
+      <c r="C41" s="1" t="str">
         <v xml:space="preserve">32 + (P)  10 + (D)  42 3 (P) 4 12 </v>
       </c>
-      <c r="D41" t="str">
+      <c r="D41" s="1" t="str">
         <v xml:space="preserve">32 + (P)  10 + (D)  42 4 (P) 4 16 </v>
       </c>
-      <c r="I41" t="str">
+      <c r="I41" s="1" t="str">
         <v xml:space="preserve">P </v>
       </c>
     </row>
     <row r="42">
-      <c r="C42" t="str">
+      <c r="C42" s="1" t="str">
         <v xml:space="preserve">19 + (A) 1  9 9 </v>
       </c>
-      <c r="E42" t="str">
+      <c r="E42" s="1" t="str">
         <v xml:space="preserve">14 + (D) 13 + (D) 27 1 D 6 6 </v>
       </c>
-      <c r="F42" t="str">
+      <c r="F42" s="1" t="str">
         <v xml:space="preserve">14 + (D) 15 + (C) 29 1 D 6 6 </v>
       </c>
-      <c r="G42" t="str">
+      <c r="G42" s="1" t="str">
         <v xml:space="preserve">17 + (C) 16 + (C) 33 1 C 7 7 </v>
       </c>
-      <c r="H42">
+      <c r="H42" s="1">
         <v>28</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="1">
         <v>142</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="1">
         <v>5.07</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44">
+      <c r="A44" s="1">
         <v>43031</v>
       </c>
-      <c r="C44" t="str">
+      <c r="C44" s="1" t="str">
         <v xml:space="preserve">37 E (E)  9 + (E)  46 4 (E) 5 20 </v>
       </c>
-      <c r="D44" t="str">
+      <c r="D44" s="1" t="str">
         <v xml:space="preserve">15 F (F)  9 + (E)  - - - - - </v>
       </c>
-      <c r="E44" t="str">
+      <c r="E44" s="1" t="str">
         <v xml:space="preserve">32 + (P)  10 + (D)  42 4 (P) 4 16 </v>
       </c>
-      <c r="F44" t="str">
+      <c r="F44" s="1" t="str">
         <v xml:space="preserve">32 + (P)  11 + (D)  43 4 (P) 4 16 </v>
       </c>
     </row>
     <row r="45">
-      <c r="C45" t="str">
+      <c r="C45" s="1" t="str">
         <v xml:space="preserve">11 + (P) 1  4 4 </v>
       </c>
     </row>
     <row r="46">
-      <c r="C46" t="str">
+      <c r="C46" s="1" t="str">
         <v xml:space="preserve">32 + (P)  8 + (P)  40 3 (P) 4 12 </v>
       </c>
-      <c r="D46" t="str">
+      <c r="D46" s="1" t="str">
         <v xml:space="preserve">7 F (F)  9 + (E)  - - - - - </v>
       </c>
-      <c r="I46" t="str">
+      <c r="I46" s="1" t="str">
         <v xml:space="preserve">F </v>
       </c>
     </row>
     <row r="47">
-      <c r="C47" t="str">
+      <c r="C47" s="1" t="str">
         <v xml:space="preserve">18 + (B) 1  8 8 </v>
       </c>
-      <c r="E47" t="str">
+      <c r="E47" s="1" t="str">
         <v xml:space="preserve">10 + (P) 10 + (P) 20 1 P 4 4 </v>
       </c>
-      <c r="F47" t="str">
+      <c r="F47" s="1" t="str">
         <v xml:space="preserve">12 + (E) 13 + (D) 25 1 D 6 6 </v>
       </c>
-      <c r="G47" t="str">
+      <c r="G47" s="1" t="str">
         <v xml:space="preserve">14 + (D) 16 + (C) 30 1 C 7 7 </v>
       </c>
-      <c r="H47">
+      <c r="H47" s="1">
         <v>20</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="1">
         <v>93</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49">
+      <c r="A49" s="1">
         <v>43032</v>
       </c>
-      <c r="C49" t="str">
+      <c r="C49" s="1" t="str">
         <v xml:space="preserve">44  (D)  9 + (E)  53 4 (D) 6 24 </v>
       </c>
-      <c r="D49" t="str">
+      <c r="D49" s="1" t="str">
         <v xml:space="preserve">32 + (P)  13 + (C)  45 4 (E) 5 20 </v>
       </c>
-      <c r="E49" t="str">
+      <c r="E49" s="1" t="str">
         <v xml:space="preserve">41  (D)  11 + (D)  52 4 (D) 6 24 </v>
       </c>
-      <c r="F49" t="str">
+      <c r="F49" s="1" t="str">
         <v xml:space="preserve">32 + (P)  10 + (D)  42 4 (P) 4 16 </v>
       </c>
     </row>
     <row r="50">
-      <c r="C50" t="str">
+      <c r="C50" s="1" t="str">
         <v xml:space="preserve">10 + (P) 1  4 4 </v>
       </c>
     </row>
     <row r="51">
-      <c r="C51" t="str">
+      <c r="C51" s="1" t="str">
         <v xml:space="preserve">37  (E)  12 + (C)  49 3 (E) 5 15 </v>
       </c>
-      <c r="D51" t="str">
+      <c r="D51" s="1" t="str">
         <v xml:space="preserve">32 + (P)  12 + (C)  44 4 (P) 4 16 </v>
       </c>
-      <c r="I51" t="str">
+      <c r="I51" s="1" t="str">
         <v xml:space="preserve">RS2 , 3 </v>
       </c>
     </row>
     <row r="52">
-      <c r="C52" t="str">
+      <c r="C52" s="1" t="str">
         <v xml:space="preserve">20 + (O) 1  10 10 </v>
       </c>
-      <c r="E52" t="str">
+      <c r="E52" s="1" t="str">
         <v xml:space="preserve">21 + (O) 20 + (O) 41 1 O 10 10 </v>
       </c>
-      <c r="F52" t="str">
+      <c r="F52" s="1" t="str">
         <v xml:space="preserve">19 + (A) 14 + (D) 33 1 C 7 7 </v>
       </c>
-      <c r="G52" t="str">
+      <c r="G52" s="1" t="str">
         <v xml:space="preserve">17 + (C) 18 + (B) 35 1 B 8 8 </v>
       </c>
-      <c r="H52">
+      <c r="H52" s="1">
         <v>28</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="1">
         <v>154</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="1">
         <v>5.5</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="str">
+      <c r="A54" s="1" t="str">
         <v>/ - FEMALE , # - 0.229 , @ - 0.5042 , * - 5045 , ADC - ADMISSION CANCELLED , RR - RESERVED , -: Fails in Theory or Practical , RPV - PROVISIONAL , RCC - 0.5050 , A,ABS - ABSENT , F* - FAILS , P - PASSES , NULL - NULL &amp; VOID</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="str">
+      <c r="A55" s="1" t="str">
         <v>RPV - PROVISIONAL , RCC - 0.5050 , A,ABS - ABSENT , F* - FAILS , P - PASSES , NULL - NULL &amp; VOID</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="str">
+      <c r="A56" s="1" t="str">
         <v>G:grade     GP:gradepoints      C:credits       CP:credits points       ∑CG:sum of product of credits &amp; grades      ∑C:sum of credits points        GPA:∑CG / ∑C</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="str">
+      <c r="A57" s="1" t="str">
         <v>MARKS               : &gt;=80              &gt;=75 and &lt;80            &gt;=70 and &lt;75            &gt;=60 and &lt;70            &gt;=50 and &lt;60            &gt;=45 and &lt;50            &gt;=40 and &lt;45            &lt;40</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="str">
+      <c r="A58" s="1" t="str">
         <v>GRADE               :    O                              A                                   B                                   C                                   D                                   E                                   P                           F</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="str">
+      <c r="A59" s="1" t="str">
         <v>GRADE POINT :  10                               9                                   8                                    7                                    6                                   5                                   4                           0</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="str">
+      <c r="A61" s="1" t="str">
         <v>RESULT PREPARED BY : ________________________________________</v>
       </c>
-      <c r="E61" t="str">
+      <c r="E61" s="1" t="str">
         <v>RESULT CHECKED BY : ________________________________________</v>
       </c>
-      <c r="H61" t="str">
+      <c r="H61" s="1" t="str">
         <v>PRINCIPAL</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="str">
+      <c r="A63" s="1" t="str">
         <v>RESULT DATE : 30.12.2017</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="H61:L61"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
     <mergeCell ref="A54:L54"/>
     <mergeCell ref="A55:L55"/>
     <mergeCell ref="A56:L56"/>
     <mergeCell ref="A57:L57"/>
     <mergeCell ref="A58:L58"/>
     <mergeCell ref="A59:L59"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="H61:L61"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="E63:G63"/>
   </mergeCells>
-  <pageMargins left="0.7000000000000001" right="0.7000000000000001" top="0.75" bottom="0.75" header="0.5118110236220472" footer="0.5118110236220472"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <ignoredErrors>
     <ignoredError numberStoredAsText="1" sqref="A1:L63"/>
   </ignoredErrors>
@@ -3120,670 +2262,670 @@
   </sheetViews>
   <sheetData>
     <row r="1">
-      <c r="A1" t="str">
+      <c r="A1" s="1" t="str">
         <v>ST. FRANCIS INSTITUTE OF TECHNOLOGY</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
+      <c r="A2" s="1" t="str">
         <v xml:space="preserve"> UNIVERSITY OF MUMBAI</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="str">
+      <c r="A3" s="1" t="str">
         <v>Results of the Second Year Engineering(SEMESTER:IV)(CREDIT BASED GRADING SYSTEM) Examination in the branch of ELECTRONICS AND TELECOMMUNICATION , held in December  2017</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="str">
+      <c r="A4" s="1" t="str">
         <v>COURSE I:ETS401     :Applied Mathematics IV</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C4" s="1" t="str">
         <v>COURSE II:ETC402     :Analog Electronics II</v>
       </c>
-      <c r="E4" t="str">
+      <c r="E4" s="1" t="str">
         <v>COURSE III:ETC403     :Microprocessors and Peripherals</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="str">
+      <c r="A5" s="1" t="str">
         <v>COURSE IV:ETC404     :Wave Theory and Propagation</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C5" s="1" t="str">
         <v>COURSE V:ETC405     :Signals and Systems</v>
       </c>
-      <c r="E5" t="str">
+      <c r="E5" s="1" t="str">
         <v>COURSE VI:ETC406     :Control Systems</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="str">
+      <c r="A6" s="1" t="str">
         <v>COURSE VII:ETL401     :Analog Electronics II Laboratory</v>
       </c>
-      <c r="C6" t="str">
+      <c r="C6" s="1" t="str">
         <v>COURSE VIII:ETL402     :Microprocessors and Peripherals Laboratory</v>
       </c>
-      <c r="E6" t="str">
+      <c r="E6" s="1" t="str">
         <v>COURSE IX:ETL403     :Software Simulation Laboratory</v>
       </c>
     </row>
     <row r="7">
-      <c r="C7" t="str">
+      <c r="C7" s="1" t="str">
         <v>&lt;------Course I------&gt;</v>
       </c>
-      <c r="D7" t="str">
+      <c r="D7" s="1" t="str">
         <v>&lt;------Course II------&gt;</v>
       </c>
-      <c r="E7" t="str">
+      <c r="E7" s="1" t="str">
         <v>&lt;------Course III------&gt;</v>
       </c>
-      <c r="F7" t="str">
+      <c r="F7" s="1" t="str">
         <v>&lt;------Course IV------&gt;</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" t="str">
+      <c r="B8" s="1" t="str">
         <v>THEORY</v>
       </c>
-      <c r="C8" t="str">
+      <c r="C8" s="1" t="str">
         <v>80/32   20/8   100 C G GP C*GP</v>
       </c>
-      <c r="D8" t="str">
+      <c r="D8" s="1" t="str">
         <v>80/32   20/8   100 C G GP C*GP</v>
       </c>
-      <c r="E8" t="str">
+      <c r="E8" s="1" t="str">
         <v>80/32   20/8   100 C G GP C*GP</v>
       </c>
-      <c r="F8" t="str">
+      <c r="F8" s="1" t="str">
         <v>80/32   20/8   100 C G GP C*GP</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" t="str">
+      <c r="B9" s="1" t="str">
         <v>TERMWORK/ORAL</v>
       </c>
-      <c r="C9" t="str">
+      <c r="C9" s="1" t="str">
         <v>25/10   C G GP C*GP</v>
       </c>
     </row>
     <row r="10">
-      <c r="C10" t="str">
+      <c r="C10" s="1" t="str">
         <v>&lt;------Course V------&gt;</v>
       </c>
-      <c r="D10" t="str">
+      <c r="D10" s="1" t="str">
         <v>&lt;------Course VI------&gt;</v>
       </c>
-      <c r="E10" t="str">
+      <c r="E10" s="1" t="str">
         <v>&lt;------Course VII------&gt;</v>
       </c>
-      <c r="F10" t="str">
+      <c r="F10" s="1" t="str">
         <v>&lt;------Course VIII------&gt;</v>
       </c>
-      <c r="G10" t="str">
+      <c r="G10" s="1" t="str">
         <v>&lt;------Course IX------&gt;</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="str">
+      <c r="B11" s="1" t="str">
         <v>THEORY</v>
       </c>
-      <c r="C11" t="str">
+      <c r="C11" s="1" t="str">
         <v>80/32   20/8   100 C G GP C*GP</v>
       </c>
-      <c r="D11" t="str">
+      <c r="D11" s="1" t="str">
         <v>80/32   20/8   100 C G GP C*GP</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="str">
+      <c r="B12" s="1" t="str">
         <v>TERMWORK/ORAL</v>
       </c>
-      <c r="C12" t="str">
+      <c r="C12" s="1" t="str">
         <v>25/10   C G GP C*GP</v>
       </c>
-      <c r="E12" t="str">
+      <c r="E12" s="1" t="str">
         <v>25/10  25/10    50 C G GP C*GP</v>
       </c>
-      <c r="F12" t="str">
+      <c r="F12" s="1" t="str">
         <v>25/10  25/10    50 C G GP C*GP</v>
       </c>
-      <c r="G12" t="str">
+      <c r="G12" s="1" t="str">
         <v>25/10  25/10    50 C G GP C*GP</v>
       </c>
-      <c r="H12" t="str">
+      <c r="H12" s="1" t="str">
         <v>∑C</v>
       </c>
-      <c r="I12" t="str">
+      <c r="I12" s="1" t="str">
         <v>∑CG</v>
       </c>
-      <c r="J12" t="str">
+      <c r="J12" s="1" t="str">
         <v>GPA</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>43033</v>
       </c>
-      <c r="B14" t="str">
+      <c r="B14" s="1" t="str">
         <v>Rebello Elliot Gordon Oswald Priscilla</v>
       </c>
-      <c r="C14" t="str">
+      <c r="C14" s="1" t="str">
         <v xml:space="preserve">35 + (P)  13 + (C)  48 4 (E) 5 20 </v>
       </c>
-      <c r="D14" t="str">
+      <c r="D14" s="1" t="str">
         <v xml:space="preserve">45  (D)  9 + (E)  54 4 (D) 6 24 </v>
       </c>
-      <c r="E14" t="str">
+      <c r="E14" s="1" t="str">
         <v xml:space="preserve">32 + (P)  8 + (P)  40 4 (P) 4 16 </v>
       </c>
-      <c r="F14" t="str">
+      <c r="F14" s="1" t="str">
         <v xml:space="preserve">33 + (P)  11 + (D)  44 4 (P) 4 16 </v>
       </c>
     </row>
     <row r="15">
-      <c r="C15" t="str">
+      <c r="C15" s="1" t="str">
         <v xml:space="preserve">10 + (P) 1  4 4 </v>
       </c>
     </row>
     <row r="16">
-      <c r="C16" t="str">
+      <c r="C16" s="1" t="str">
         <v xml:space="preserve">32 + (P)  9 + (E)  41 3 (P) 4 12 </v>
       </c>
-      <c r="D16" t="str">
+      <c r="D16" s="1" t="str">
         <v xml:space="preserve">33 + (P)  10 + (D)  43 4 (P) 4 16 </v>
       </c>
-      <c r="I16" t="str">
+      <c r="I16" s="1" t="str">
         <v xml:space="preserve">P </v>
       </c>
     </row>
     <row r="17">
-      <c r="C17" t="str">
+      <c r="C17" s="1" t="str">
         <v xml:space="preserve">17 + (C) 1  7 7 </v>
       </c>
-      <c r="E17" t="str">
+      <c r="E17" s="1" t="str">
         <v xml:space="preserve">14 + (D) 14 + (D) 28 1 D 6 6 </v>
       </c>
-      <c r="F17" t="str">
+      <c r="F17" s="1" t="str">
         <v xml:space="preserve">11 + (P) 15 + (C) 26 1 D 6 6 </v>
       </c>
-      <c r="G17" t="str">
+      <c r="G17" s="1" t="str">
         <v xml:space="preserve">18 + (B) 19 + (A) 37 1 B 8 8 </v>
       </c>
-      <c r="H17">
+      <c r="H17" s="1">
         <v>28</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="1">
         <v>135</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="1">
         <v>4.82</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>43034</v>
       </c>
-      <c r="C19" t="str">
+      <c r="C19" s="1" t="str">
         <v xml:space="preserve">32 + (P)  11 + (D)  43 4 (P) 4 16 </v>
       </c>
-      <c r="D19" t="str">
+      <c r="D19" s="1" t="str">
         <v xml:space="preserve">32 E (P)  13 + (C)  45 4 (E) 5 20 </v>
       </c>
-      <c r="E19" t="str">
+      <c r="E19" s="1" t="str">
         <v xml:space="preserve">22 F (F)  13 + (C)  - - - - - </v>
       </c>
-      <c r="F19" t="str">
+      <c r="F19" s="1" t="str">
         <v xml:space="preserve">38 E (E)  10 + (D)  48 4 (E) 5 20 </v>
       </c>
     </row>
     <row r="20">
-      <c r="C20" t="str">
+      <c r="C20" s="1" t="str">
         <v xml:space="preserve">12 + (E) 1  5 5 </v>
       </c>
     </row>
     <row r="21">
-      <c r="C21" t="str">
+      <c r="C21" s="1" t="str">
         <v xml:space="preserve">32 + (P)  15 + (A)  47 3 (E) 5 15 </v>
       </c>
-      <c r="D21" t="str">
+      <c r="D21" s="1" t="str">
         <v xml:space="preserve">35 + (P)  9 + (E)  44 4 (P) 4 16 </v>
       </c>
-      <c r="I21" t="str">
+      <c r="I21" s="1" t="str">
         <v xml:space="preserve">F </v>
       </c>
     </row>
     <row r="22">
-      <c r="C22" t="str">
+      <c r="C22" s="1" t="str">
         <v xml:space="preserve">21 + (O) 1  10 10 </v>
       </c>
-      <c r="E22" t="str">
+      <c r="E22" s="1" t="str">
         <v xml:space="preserve">21 + (O) 15 + (C) 36 1 B 8 8 </v>
       </c>
-      <c r="F22" t="str">
+      <c r="F22" s="1" t="str">
         <v xml:space="preserve">20 + (O) 17 + (C) 37 1 B 8 8 </v>
       </c>
-      <c r="G22" t="str">
+      <c r="G22" s="1" t="str">
         <v xml:space="preserve">18 + (B) 14 + (D) 32 1 C 7 7 </v>
       </c>
-      <c r="H22">
+      <c r="H22" s="1">
         <v>24</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="1">
         <v>125</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>43035</v>
       </c>
-      <c r="C24" t="str">
+      <c r="C24" s="1" t="str">
         <v xml:space="preserve">- AB (F)  8 + (P)  - - - - - </v>
       </c>
-      <c r="D24" t="str">
+      <c r="D24" s="1" t="str">
         <v xml:space="preserve">- AB (F)  9 + (E)  - - - - - </v>
       </c>
-      <c r="E24" t="str">
+      <c r="E24" s="1" t="str">
         <v xml:space="preserve">- AB (F)  10 + (D)  - - - - - </v>
       </c>
-      <c r="F24" t="str">
+      <c r="F24" s="1" t="str">
         <v xml:space="preserve">- AB (F)  15 + (A)  - - - - - </v>
       </c>
     </row>
     <row r="25">
-      <c r="C25" t="str">
+      <c r="C25" s="1" t="str">
         <v xml:space="preserve">11 + (P) 1  4 4 </v>
       </c>
     </row>
     <row r="26">
-      <c r="C26" t="str">
+      <c r="C26" s="1" t="str">
         <v xml:space="preserve">32 + (P)  13 + (C)  45 3 (E) 5 15 </v>
       </c>
-      <c r="D26" t="str">
+      <c r="D26" s="1" t="str">
         <v xml:space="preserve">32 + (P)  16 + (O)  48 4 (E) 5 20 </v>
       </c>
-      <c r="I26" t="str">
+      <c r="I26" s="1" t="str">
         <v xml:space="preserve">F </v>
       </c>
     </row>
     <row r="27">
-      <c r="C27" t="str">
+      <c r="C27" s="1" t="str">
         <v xml:space="preserve">17 + (C) 1  7 7 </v>
       </c>
-      <c r="E27" t="str">
+      <c r="E27" s="1" t="str">
         <v xml:space="preserve">18 + (B) 18 + (B) 36 1 B 8 8 </v>
       </c>
-      <c r="F27" t="str">
+      <c r="F27" s="1" t="str">
         <v xml:space="preserve">20 + (O) 15 + (C) 35 1 B 8 8 </v>
       </c>
-      <c r="G27" t="str">
+      <c r="G27" s="1" t="str">
         <v xml:space="preserve">21 + (O) 16 + (C) 37 1 B 8 8 </v>
       </c>
-      <c r="H27">
+      <c r="H27" s="1">
         <v>12</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="1">
         <v>70</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29">
+      <c r="A29" s="1">
         <v>43036</v>
       </c>
-      <c r="C29" t="str">
+      <c r="C29" s="1" t="str">
         <v xml:space="preserve">42  (D)  14 + (B)  56 4 (D) 6 24 </v>
       </c>
-      <c r="D29" t="str">
+      <c r="D29" s="1" t="str">
         <v xml:space="preserve">35 + (P)  10 + (D)  45 4 (E) 5 20 </v>
       </c>
-      <c r="E29" t="str">
+      <c r="E29" s="1" t="str">
         <v xml:space="preserve">34 + (P)  11 + (D)  45 4 (E) 5 20 </v>
       </c>
-      <c r="F29" t="str">
+      <c r="F29" s="1" t="str">
         <v xml:space="preserve">32 + (P)  9 + (E)  41 4 (P) 4 16 </v>
       </c>
     </row>
     <row r="30">
-      <c r="C30" t="str">
+      <c r="C30" s="1" t="str">
         <v xml:space="preserve">10 + (P) 1  4 4 </v>
       </c>
     </row>
     <row r="31">
-      <c r="C31" t="str">
+      <c r="C31" s="1" t="str">
         <v xml:space="preserve">34 + (P)  8 + (P)  42 3 (P) 4 12 </v>
       </c>
-      <c r="D31" t="str">
+      <c r="D31" s="1" t="str">
         <v xml:space="preserve">32 + (P)  13 + (C)  45 4 (E) 5 20 </v>
       </c>
-      <c r="I31" t="str">
+      <c r="I31" s="1" t="str">
         <v xml:space="preserve">P </v>
       </c>
     </row>
     <row r="32">
-      <c r="C32" t="str">
+      <c r="C32" s="1" t="str">
         <v xml:space="preserve">18 + (B) 1  8 8 </v>
       </c>
-      <c r="E32" t="str">
+      <c r="E32" s="1" t="str">
         <v xml:space="preserve">14 + (D) 14 + (D) 28 1 D 6 6 </v>
       </c>
-      <c r="F32" t="str">
+      <c r="F32" s="1" t="str">
         <v xml:space="preserve">18 + (B) 18 + (B) 36 1 B 8 8 </v>
       </c>
-      <c r="G32" t="str">
+      <c r="G32" s="1" t="str">
         <v xml:space="preserve">15 + (C) 18 + (B) 33 1 C 7 7 </v>
       </c>
-      <c r="H32">
+      <c r="H32" s="1">
         <v>28</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="1">
         <v>145</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="1">
         <v>5.18</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34">
+      <c r="A34" s="1">
         <v>43037</v>
       </c>
-      <c r="C34" t="str">
+      <c r="C34" s="1" t="str">
         <v xml:space="preserve">41 + (D)  12 + (C)  53 4 (D) 6 24 </v>
       </c>
-      <c r="D34" t="str">
+      <c r="D34" s="1" t="str">
         <v xml:space="preserve">36 + (E)  14 + (B)  50 4 (D) 6 24 </v>
       </c>
-      <c r="E34" t="str">
+      <c r="E34" s="1" t="str">
         <v xml:space="preserve">38 + (E)  10 + (D)  48 4 (E) 5 20 </v>
       </c>
-      <c r="F34" t="str">
+      <c r="F34" s="1" t="str">
         <v xml:space="preserve">34  (P)  11 + (D)  45 4 (E) 5 20 </v>
       </c>
     </row>
     <row r="35">
-      <c r="C35" t="str">
+      <c r="C35" s="1" t="str">
         <v xml:space="preserve">11 + (P) 1  4 4 </v>
       </c>
     </row>
     <row r="36">
-      <c r="C36" t="str">
+      <c r="C36" s="1" t="str">
         <v xml:space="preserve">39 + (E)  15 + (A)  54 3 (D) 6 18 </v>
       </c>
-      <c r="D36" t="str">
+      <c r="D36" s="1" t="str">
         <v xml:space="preserve">32  (P)  17  (O)  49 4 (E) 5 20 </v>
       </c>
-      <c r="I36" t="str">
+      <c r="I36" s="1" t="str">
         <v xml:space="preserve">P </v>
       </c>
     </row>
     <row r="37">
-      <c r="C37" t="str">
+      <c r="C37" s="1" t="str">
         <v xml:space="preserve">21 + (O) 1  10 10 </v>
       </c>
-      <c r="E37" t="str">
+      <c r="E37" s="1" t="str">
         <v xml:space="preserve">22 + (O) 22 + (O) 44 1 O 10 10 </v>
       </c>
-      <c r="F37" t="str">
+      <c r="F37" s="1" t="str">
         <v xml:space="preserve">19 + (A) 19 + (A) 38 1 A 9 9 </v>
       </c>
-      <c r="G37" t="str">
+      <c r="G37" s="1" t="str">
         <v xml:space="preserve">22 + (O) 20 + (O) 42 1 O 10 10 </v>
       </c>
-      <c r="H37">
+      <c r="H37" s="1">
         <v>28</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="1">
         <v>169</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="1">
         <v>6.04</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39">
+      <c r="A39" s="1">
         <v>43038</v>
       </c>
-      <c r="C39" t="str">
+      <c r="C39" s="1" t="str">
         <v xml:space="preserve">32  (P)  9 + (E)  41 4 (P) 4 16 </v>
       </c>
-      <c r="D39" t="str">
+      <c r="D39" s="1" t="str">
         <v xml:space="preserve">35 + (P)  11 + (D)  46 4 (E) 5 20 </v>
       </c>
-      <c r="E39" t="str">
+      <c r="E39" s="1" t="str">
         <v xml:space="preserve">43 + (D)  11 + (D)  54 4 (D) 6 24 </v>
       </c>
-      <c r="F39" t="str">
+      <c r="F39" s="1" t="str">
         <v xml:space="preserve">34 + (P)  11 + (D)  45 4 (E) 5 20 </v>
       </c>
     </row>
     <row r="40">
-      <c r="C40" t="str">
+      <c r="C40" s="1" t="str">
         <v xml:space="preserve">12 + (E) 1  5 5 </v>
       </c>
     </row>
     <row r="41">
-      <c r="C41" t="str">
+      <c r="C41" s="1" t="str">
         <v xml:space="preserve">42 + (D)  10 + (D)  52 3 (D) 6 18 </v>
       </c>
-      <c r="D41" t="str">
+      <c r="D41" s="1" t="str">
         <v xml:space="preserve">33 + (P)  11 + (D)  44 4 (P) 4 16 </v>
       </c>
-      <c r="I41" t="str">
+      <c r="I41" s="1" t="str">
         <v xml:space="preserve">RS1 , 2 , 3 </v>
       </c>
     </row>
     <row r="42">
-      <c r="C42" t="str">
+      <c r="C42" s="1" t="str">
         <v xml:space="preserve">18 + (B) 1  8 8 </v>
       </c>
-      <c r="E42" t="str">
+      <c r="E42" s="1" t="str">
         <v xml:space="preserve">21 + (O) 18 + (B) 39 1 A 9 9 </v>
       </c>
-      <c r="F42" t="str">
+      <c r="F42" s="1" t="str">
         <v xml:space="preserve">17 + (C) 20 + (O) 37 1 B 8 8 </v>
       </c>
-      <c r="G42" t="str">
+      <c r="G42" s="1" t="str">
         <v xml:space="preserve">16 + (C) 16 + (C) 32 1 C 7 7 </v>
       </c>
-      <c r="H42">
+      <c r="H42" s="1">
         <v>28</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="1">
         <v>151</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="1">
         <v>5.39</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44">
+      <c r="A44" s="1">
         <v>43039</v>
       </c>
-      <c r="C44" t="str">
+      <c r="C44" s="1" t="str">
         <v xml:space="preserve">32 + (P)  8 + (P)  40 4 (P) 4 16 </v>
       </c>
-      <c r="D44" t="str">
+      <c r="D44" s="1" t="str">
         <v xml:space="preserve">34 + (P)  9 + (E)  43 4 (P) 4 16 </v>
       </c>
-      <c r="E44" t="str">
+      <c r="E44" s="1" t="str">
         <v xml:space="preserve">15 F (F)  11 + (D)  - - - - - </v>
       </c>
-      <c r="F44" t="str">
+      <c r="F44" s="1" t="str">
         <v xml:space="preserve">18 F (F)  11 + (D)  - - - - - </v>
       </c>
     </row>
     <row r="45">
-      <c r="C45" t="str">
+      <c r="C45" s="1" t="str">
         <v xml:space="preserve">10 + (P) 1  4 4 </v>
       </c>
     </row>
     <row r="46">
-      <c r="C46" t="str">
+      <c r="C46" s="1" t="str">
         <v xml:space="preserve">32 E (P)  8 + (P)  40 3 (P) 4 12 </v>
       </c>
-      <c r="D46" t="str">
+      <c r="D46" s="1" t="str">
         <v xml:space="preserve">40 + (D)  9 + (E)  49 4 (E) 5 20 </v>
       </c>
-      <c r="I46" t="str">
+      <c r="I46" s="1" t="str">
         <v xml:space="preserve">F </v>
       </c>
     </row>
     <row r="47">
-      <c r="C47" t="str">
+      <c r="C47" s="1" t="str">
         <v xml:space="preserve">18 + (B) 1  8 8 </v>
       </c>
-      <c r="E47" t="str">
+      <c r="E47" s="1" t="str">
         <v xml:space="preserve">16 + (C) 15 + (C) 31 1 C 7 7 </v>
       </c>
-      <c r="F47" t="str">
+      <c r="F47" s="1" t="str">
         <v xml:space="preserve">15 + (C) 15 + (C) 30 1 C 7 7 </v>
       </c>
-      <c r="G47" t="str">
+      <c r="G47" s="1" t="str">
         <v xml:space="preserve">15 + (C) 14 + (D) 29 1 D 6 6 </v>
       </c>
-      <c r="H47">
+      <c r="H47" s="1">
         <v>20</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="1">
         <v>96</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49">
+      <c r="A49" s="1">
         <v>43040</v>
       </c>
-      <c r="C49" t="str">
+      <c r="C49" s="1" t="str">
         <v xml:space="preserve">46  (D)  8 + (P)  54 4 (D) 6 24 </v>
       </c>
-      <c r="D49" t="str">
+      <c r="D49" s="1" t="str">
         <v xml:space="preserve">35 + (P)  13 + (C)  48 4 (E) 5 20 </v>
       </c>
-      <c r="E49" t="str">
+      <c r="E49" s="1" t="str">
         <v xml:space="preserve">33 + (P)  10 + (D)  43 4 (P) 4 16 </v>
       </c>
-      <c r="F49" t="str">
+      <c r="F49" s="1" t="str">
         <v xml:space="preserve">32 + (P)  8 + (P)  40 4 (P) 4 16 </v>
       </c>
     </row>
     <row r="50">
-      <c r="C50" t="str">
+      <c r="C50" s="1" t="str">
         <v xml:space="preserve">10 + (P) 1  4 4 </v>
       </c>
     </row>
     <row r="51">
-      <c r="C51" t="str">
+      <c r="C51" s="1" t="str">
         <v xml:space="preserve">39 + (E)  10 + (D)  49 3 (E) 5 15 </v>
       </c>
-      <c r="D51" t="str">
+      <c r="D51" s="1" t="str">
         <v xml:space="preserve">33 + (P)  10 + (D)  43 4 (P) 4 16 </v>
       </c>
-      <c r="I51" t="str">
+      <c r="I51" s="1" t="str">
         <v xml:space="preserve">RS2 , 3 </v>
       </c>
     </row>
     <row r="52">
-      <c r="C52" t="str">
+      <c r="C52" s="1" t="str">
         <v xml:space="preserve">21 + (O) 1  10 10 </v>
       </c>
-      <c r="E52" t="str">
+      <c r="E52" s="1" t="str">
         <v xml:space="preserve">22 + (O) 16 + (C) 38 1 A 9 9 </v>
       </c>
-      <c r="F52" t="str">
+      <c r="F52" s="1" t="str">
         <v xml:space="preserve">19 + (A) 19 + (A) 38 1 A 9 9 </v>
       </c>
-      <c r="G52" t="str">
+      <c r="G52" s="1" t="str">
         <v xml:space="preserve">19 + (A) 19 + (A) 38 1 A 9 9 </v>
       </c>
-      <c r="H52">
+      <c r="H52" s="1">
         <v>28</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="1">
         <v>148</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="1">
         <v>5.29</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="str">
+      <c r="A54" s="1" t="str">
         <v>/ - FEMALE , # - 0.229 , @ - 0.5042 , * - 5045 , ADC - ADMISSION CANCELLED , RR - RESERVED , -: Fails in Theory or Practical , RPV - PROVISIONAL , RCC - 0.5050 , A,ABS - ABSENT , F* - FAILS , P - PASSES , NULL - NULL &amp; VOID</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="str">
+      <c r="A55" s="1" t="str">
         <v>RPV - PROVISIONAL , RCC - 0.5050 , A,ABS - ABSENT , F* - FAILS , P - PASSES , NULL - NULL &amp; VOID</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="str">
+      <c r="A56" s="1" t="str">
         <v>G:grade     GP:gradepoints      C:credits       CP:credits points       ∑CG:sum of product of credits &amp; grades      ∑C:sum of credits points        GPA:∑CG / ∑C</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="str">
+      <c r="A57" s="1" t="str">
         <v>MARKS               : &gt;=80              &gt;=75 and &lt;80            &gt;=70 and &lt;75            &gt;=60 and &lt;70            &gt;=50 and &lt;60            &gt;=45 and &lt;50            &gt;=40 and &lt;45            &lt;40</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="str">
+      <c r="A58" s="1" t="str">
         <v>GRADE               :    O                              A                                   B                                   C                                   D                                   E                                   P                           F</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="str">
+      <c r="A59" s="1" t="str">
         <v>GRADE POINT :  10                               9                                   8                                    7                                    6                                   5                                   4                           0</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="str">
+      <c r="A61" s="1" t="str">
         <v>RESULT PREPARED BY : ________________________________________</v>
       </c>
-      <c r="E61" t="str">
+      <c r="E61" s="1" t="str">
         <v>RESULT CHECKED BY : ________________________________________</v>
       </c>
-      <c r="H61" t="str">
+      <c r="H61" s="1" t="str">
         <v>PRINCIPAL</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="str">
+      <c r="A63" s="1" t="str">
         <v>RESULT DATE : 30.12.2017</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="H61:L61"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
     <mergeCell ref="A54:L54"/>
     <mergeCell ref="A55:L55"/>
     <mergeCell ref="A56:L56"/>
     <mergeCell ref="A57:L57"/>
     <mergeCell ref="A58:L58"/>
     <mergeCell ref="A59:L59"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="H61:L61"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="E63:G63"/>
   </mergeCells>
-  <pageMargins left="0.7000000000000001" right="0.7000000000000001" top="0.75" bottom="0.75" header="0.5118110236220472" footer="0.5118110236220472"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <ignoredErrors>
     <ignoredError numberStoredAsText="1" sqref="A1:L63"/>
   </ignoredErrors>
@@ -3798,214 +2940,214 @@
   </sheetViews>
   <sheetData>
     <row r="1">
-      <c r="A1" t="str">
+      <c r="A1" s="1" t="str">
         <v>ST. FRANCIS INSTITUTE OF TECHNOLOGY</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
+      <c r="A2" s="1" t="str">
         <v xml:space="preserve"> UNIVERSITY OF MUMBAI</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="str">
+      <c r="A4" s="1" t="str">
         <v>COURSE I:ETS401     :</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C4" s="1" t="str">
         <v>COURSE II:ETC402     :</v>
       </c>
-      <c r="E4" t="str">
+      <c r="E4" s="1" t="str">
         <v>COURSE III:ETC403     :</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="str">
+      <c r="A5" s="1" t="str">
         <v>COURSE IV:ETC404     :</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C5" s="1" t="str">
         <v>COURSE V:ETC405     :</v>
       </c>
-      <c r="E5" t="str">
+      <c r="E5" s="1" t="str">
         <v>COURSE VI:ETC406     :</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="str">
+      <c r="A6" s="1" t="str">
         <v>COURSE VII:ETL401     :</v>
       </c>
-      <c r="C6" t="str">
+      <c r="C6" s="1" t="str">
         <v>COURSE VIII:ETL402     :</v>
       </c>
-      <c r="E6" t="str">
+      <c r="E6" s="1" t="str">
         <v>COURSE IX:ETL403     :</v>
       </c>
     </row>
     <row r="7">
-      <c r="C7" t="str">
+      <c r="C7" s="1" t="str">
         <v>&lt;------Course I------&gt;</v>
       </c>
-      <c r="D7" t="str">
+      <c r="D7" s="1" t="str">
         <v>&lt;------Course II------&gt;</v>
       </c>
-      <c r="E7" t="str">
+      <c r="E7" s="1" t="str">
         <v>&lt;------Course III------&gt;</v>
       </c>
-      <c r="F7" t="str">
+      <c r="F7" s="1" t="str">
         <v>&lt;------Course IV------&gt;</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" t="str">
+      <c r="B8" s="1" t="str">
         <v>THEORY</v>
       </c>
-      <c r="C8" t="str">
+      <c r="C8" s="1" t="str">
         <v>80/32   20/8   100 C G GP C*GP</v>
       </c>
-      <c r="D8" t="str">
+      <c r="D8" s="1" t="str">
         <v>80/32   20/8   100 C G GP C*GP</v>
       </c>
-      <c r="E8" t="str">
+      <c r="E8" s="1" t="str">
         <v>80/32   20/8   100 C G GP C*GP</v>
       </c>
-      <c r="F8" t="str">
+      <c r="F8" s="1" t="str">
         <v>80/32   20/8   100 C G GP C*GP</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" t="str">
+      <c r="B9" s="1" t="str">
         <v>TERMWORK/ORAL</v>
       </c>
-      <c r="C9" t="str">
+      <c r="C9" s="1" t="str">
         <v>25/10   C G GP C*GP</v>
       </c>
     </row>
     <row r="10">
-      <c r="C10" t="str">
+      <c r="C10" s="1" t="str">
         <v>&lt;------Course V------&gt;</v>
       </c>
-      <c r="D10" t="str">
+      <c r="D10" s="1" t="str">
         <v>&lt;------Course VI------&gt;</v>
       </c>
-      <c r="E10" t="str">
+      <c r="E10" s="1" t="str">
         <v>&lt;------Course VII------&gt;</v>
       </c>
-      <c r="F10" t="str">
+      <c r="F10" s="1" t="str">
         <v>&lt;------Course VIII------&gt;</v>
       </c>
-      <c r="G10" t="str">
+      <c r="G10" s="1" t="str">
         <v>&lt;------Course IX------&gt;</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="str">
+      <c r="B11" s="1" t="str">
         <v>THEORY</v>
       </c>
-      <c r="C11" t="str">
+      <c r="C11" s="1" t="str">
         <v>80/32   20/8   100 C G GP C*GP</v>
       </c>
-      <c r="D11" t="str">
+      <c r="D11" s="1" t="str">
         <v>80/32   20/8   100 C G GP C*GP</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="str">
+      <c r="B12" s="1" t="str">
         <v>TERMWORK/ORAL</v>
       </c>
-      <c r="C12" t="str">
+      <c r="C12" s="1" t="str">
         <v>25/10   C G GP C*GP</v>
       </c>
-      <c r="E12" t="str">
+      <c r="E12" s="1" t="str">
         <v>25/10  25/10    50 C G GP C*GP</v>
       </c>
-      <c r="F12" t="str">
+      <c r="F12" s="1" t="str">
         <v>25/10  25/10    50 C G GP C*GP</v>
       </c>
-      <c r="G12" t="str">
+      <c r="G12" s="1" t="str">
         <v>25/10  25/10    50 C G GP C*GP</v>
       </c>
-      <c r="H12" t="str">
+      <c r="H12" s="1" t="str">
         <v>∑C</v>
       </c>
-      <c r="I12" t="str">
+      <c r="I12" s="1" t="str">
         <v>∑CG</v>
       </c>
-      <c r="J12" t="str">
+      <c r="J12" s="1" t="str">
         <v>GPA</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="str">
+      <c r="A14" s="1" t="str">
         <v>/ - FEMALE , # - 0.229 , @ - 0.5042 , * - 5045 , ADC - ADMISSION CANCELLED , RR - RESERVED , -: Fails in Theory or Practical , RPV - PROVISIONAL , RCC - 0.5050 , A,ABS - ABSENT , F* - FAILS , P - PASSES , NULL - NULL &amp; VOID</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="str">
+      <c r="A15" s="1" t="str">
         <v>RPV - PROVISIONAL , RCC - 0.5050 , A,ABS - ABSENT , F* - FAILS , P - PASSES , NULL - NULL &amp; VOID</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="str">
+      <c r="A16" s="1" t="str">
         <v>G:grade     GP:gradepoints      C:credits       CP:credits points       ∑CG:sum of product of credits &amp; grades      ∑C:sum of credits points        GPA:∑CG / ∑C</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="str">
+      <c r="A17" s="1" t="str">
         <v>MARKS               : &gt;=80              &gt;=75 and &lt;80            &gt;=70 and &lt;75            &gt;=60 and &lt;70            &gt;=50 and &lt;60            &gt;=45 and &lt;50            &gt;=40 and &lt;45            &lt;40</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="str">
+      <c r="A18" s="1" t="str">
         <v>GRADE               :    O                              A                                   B                                   C                                   D                                   E                                   P                           F</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="str">
+      <c r="A19" s="1" t="str">
         <v>GRADE POINT :  10                               9                                   8                                    7                                    6                                   5                                   4                           0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="str">
+      <c r="A21" s="1" t="str">
         <v>RESULT PREPARED BY : ________________________________________</v>
       </c>
-      <c r="E21" t="str">
+      <c r="E21" s="1" t="str">
         <v>RESULT CHECKED BY : ________________________________________</v>
       </c>
-      <c r="H21" t="str">
+      <c r="H21" s="1" t="str">
         <v>PRINCIPAL</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="str">
+      <c r="A23" s="1" t="str">
         <v>RESULT DATE : 30.12.2017</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
     <mergeCell ref="A14:L14"/>
     <mergeCell ref="A15:L15"/>
     <mergeCell ref="A16:L16"/>
     <mergeCell ref="A17:L17"/>
     <mergeCell ref="A18:L18"/>
     <mergeCell ref="A19:L19"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="E23:G23"/>
   </mergeCells>
-  <pageMargins left="0.7000000000000001" right="0.7000000000000001" top="0.75" bottom="0.75" header="0.5118110236220472" footer="0.5118110236220472"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <ignoredErrors>
     <ignoredError numberStoredAsText="1" sqref="A1:L24"/>
   </ignoredErrors>

--- a/backend/temp.xlsx
+++ b/backend/temp.xlsx
@@ -574,13 +574,13 @@
     </row>
     <row r="15">
       <c r="C15" s="1" t="str">
-        <v>33/</v>
+        <v>/33</v>
       </c>
       <c r="D15" s="1" t="str">
-        <v>33/</v>
+        <v>/</v>
       </c>
       <c r="E15" s="1" t="str">
-        <v>33/</v>
+        <v>/</v>
       </c>
     </row>
     <row r="19">
@@ -599,13 +599,13 @@
     </row>
     <row r="20">
       <c r="C20" s="1" t="str">
-        <v>96/</v>
+        <v>/96</v>
       </c>
       <c r="D20" s="1" t="str">
-        <v>96/</v>
+        <v>/</v>
       </c>
       <c r="E20" s="1" t="str">
-        <v>96/</v>
+        <v>/</v>
       </c>
     </row>
     <row r="24">
@@ -624,13 +624,13 @@
     </row>
     <row r="25">
       <c r="C25" s="1" t="str">
-        <v>78/</v>
+        <v>/78</v>
       </c>
       <c r="D25" s="1" t="str">
-        <v>78/</v>
+        <v>/</v>
       </c>
       <c r="E25" s="1" t="str">
-        <v>78/</v>
+        <v>/</v>
       </c>
     </row>
     <row r="29">
@@ -649,13 +649,13 @@
     </row>
     <row r="30">
       <c r="C30" s="1" t="str">
-        <v>65/</v>
+        <v>/65</v>
       </c>
       <c r="D30" s="1" t="str">
-        <v>65/</v>
+        <v>/</v>
       </c>
       <c r="E30" s="1" t="str">
-        <v>65/</v>
+        <v>/</v>
       </c>
     </row>
     <row r="34">
@@ -674,13 +674,13 @@
     </row>
     <row r="35">
       <c r="C35" s="1" t="str">
-        <v>86/</v>
+        <v>/86</v>
       </c>
       <c r="D35" s="1" t="str">
-        <v>86/</v>
+        <v>/</v>
       </c>
       <c r="E35" s="1" t="str">
-        <v>86/</v>
+        <v>/</v>
       </c>
     </row>
     <row r="39">
@@ -699,13 +699,13 @@
     </row>
     <row r="40">
       <c r="C40" s="1" t="str">
-        <v>12/</v>
+        <v>/12</v>
       </c>
       <c r="D40" s="1" t="str">
-        <v>12/</v>
+        <v>/</v>
       </c>
       <c r="E40" s="1" t="str">
-        <v>12/</v>
+        <v>/</v>
       </c>
     </row>
     <row r="44">
@@ -724,13 +724,13 @@
     </row>
     <row r="45">
       <c r="C45" s="1" t="str">
-        <v>78/</v>
+        <v>/78</v>
       </c>
       <c r="D45" s="1" t="str">
-        <v>78/</v>
+        <v>/</v>
       </c>
       <c r="E45" s="1" t="str">
-        <v>78/</v>
+        <v>/</v>
       </c>
     </row>
     <row r="49">
@@ -749,13 +749,13 @@
     </row>
     <row r="50">
       <c r="C50" s="1" t="str">
-        <v>76/</v>
+        <v>/76</v>
       </c>
       <c r="D50" s="1" t="str">
-        <v>76/</v>
+        <v>/</v>
       </c>
       <c r="E50" s="1" t="str">
-        <v>76/</v>
+        <v>/</v>
       </c>
     </row>
     <row r="54">
@@ -774,13 +774,13 @@
     </row>
     <row r="55">
       <c r="C55" s="1" t="str">
-        <v>76/</v>
+        <v>/76</v>
       </c>
       <c r="D55" s="1" t="str">
-        <v>76/</v>
+        <v>/</v>
       </c>
       <c r="E55" s="1" t="str">
-        <v>76/</v>
+        <v>/</v>
       </c>
     </row>
     <row r="59">
@@ -799,13 +799,13 @@
     </row>
     <row r="60">
       <c r="C60" s="1" t="str">
-        <v>56/</v>
+        <v>/56</v>
       </c>
       <c r="D60" s="1" t="str">
-        <v>56/</v>
+        <v>/</v>
       </c>
       <c r="E60" s="1" t="str">
-        <v>56/</v>
+        <v>/</v>
       </c>
     </row>
   </sheetData>

--- a/backend/temp.xlsx
+++ b/backend/temp.xlsx
@@ -9,6 +9,7 @@
     <sheet name="Worksheet 3" sheetId="4" r:id="rId4"/>
     <sheet name="Worksheet 4" sheetId="5" r:id="rId5"/>
     <sheet name="Worksheet 5" sheetId="6" r:id="rId6"/>
+    <sheet name="test1" sheetId="7" r:id="rId7"/>
   </sheets>
 </workbook>
 </file>
@@ -563,7 +564,7 @@
         <v>191039</v>
       </c>
       <c r="C14" s="1" t="str">
-        <v/>
+        <v>32</v>
       </c>
       <c r="D14" s="1" t="str">
         <v/>
@@ -574,7 +575,7 @@
     </row>
     <row r="15">
       <c r="C15" s="1" t="str">
-        <v>/33</v>
+        <v>/</v>
       </c>
       <c r="D15" s="1" t="str">
         <v>/</v>
@@ -588,7 +589,7 @@
         <v>201002</v>
       </c>
       <c r="C19" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="D19" s="1" t="str">
         <v/>
@@ -599,7 +600,7 @@
     </row>
     <row r="20">
       <c r="C20" s="1" t="str">
-        <v>/96</v>
+        <v>/</v>
       </c>
       <c r="D20" s="1" t="str">
         <v>/</v>
@@ -613,7 +614,7 @@
         <v>201004</v>
       </c>
       <c r="C24" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="D24" s="1" t="str">
         <v/>
@@ -624,7 +625,7 @@
     </row>
     <row r="25">
       <c r="C25" s="1" t="str">
-        <v>/78</v>
+        <v>/</v>
       </c>
       <c r="D25" s="1" t="str">
         <v>/</v>
@@ -638,7 +639,7 @@
         <v>201006</v>
       </c>
       <c r="C29" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="D29" s="1" t="str">
         <v/>
@@ -649,7 +650,7 @@
     </row>
     <row r="30">
       <c r="C30" s="1" t="str">
-        <v>/65</v>
+        <v>/</v>
       </c>
       <c r="D30" s="1" t="str">
         <v>/</v>
@@ -663,7 +664,7 @@
         <v>201009</v>
       </c>
       <c r="C34" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="D34" s="1" t="str">
         <v/>
@@ -674,7 +675,7 @@
     </row>
     <row r="35">
       <c r="C35" s="1" t="str">
-        <v>/86</v>
+        <v>/</v>
       </c>
       <c r="D35" s="1" t="str">
         <v>/</v>
@@ -688,7 +689,7 @@
         <v>201019</v>
       </c>
       <c r="C39" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="D39" s="1" t="str">
         <v/>
@@ -699,7 +700,7 @@
     </row>
     <row r="40">
       <c r="C40" s="1" t="str">
-        <v>/12</v>
+        <v>/</v>
       </c>
       <c r="D40" s="1" t="str">
         <v>/</v>
@@ -713,7 +714,7 @@
         <v>201022</v>
       </c>
       <c r="C44" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="D44" s="1" t="str">
         <v/>
@@ -724,7 +725,7 @@
     </row>
     <row r="45">
       <c r="C45" s="1" t="str">
-        <v>/78</v>
+        <v>/</v>
       </c>
       <c r="D45" s="1" t="str">
         <v>/</v>
@@ -738,7 +739,7 @@
         <v>201024</v>
       </c>
       <c r="C49" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="D49" s="1" t="str">
         <v/>
@@ -749,7 +750,7 @@
     </row>
     <row r="50">
       <c r="C50" s="1" t="str">
-        <v>/76</v>
+        <v>/</v>
       </c>
       <c r="D50" s="1" t="str">
         <v>/</v>
@@ -763,7 +764,7 @@
         <v>201026</v>
       </c>
       <c r="C54" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="D54" s="1" t="str">
         <v/>
@@ -774,7 +775,7 @@
     </row>
     <row r="55">
       <c r="C55" s="1" t="str">
-        <v>/76</v>
+        <v>/</v>
       </c>
       <c r="D55" s="1" t="str">
         <v>/</v>
@@ -788,7 +789,7 @@
         <v>201029</v>
       </c>
       <c r="C59" s="1" t="str">
-        <v/>
+        <v>-8</v>
       </c>
       <c r="D59" s="1" t="str">
         <v/>
@@ -799,7 +800,7 @@
     </row>
     <row r="60">
       <c r="C60" s="1" t="str">
-        <v>/56</v>
+        <v>/</v>
       </c>
       <c r="D60" s="1" t="str">
         <v>/</v>
@@ -3152,4 +3153,431 @@
     <ignoredError numberStoredAsText="1" sqref="A1:L24"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <cols>
+    <col min="1" max="1" width="7.83203125" customWidth="1"/>
+    <col min="2" max="2" width="35.83203125" customWidth="1"/>
+    <col min="3" max="3" width="30.83203125" customWidth="1"/>
+    <col min="4" max="4" width="30.83203125" customWidth="1"/>
+    <col min="5" max="5" width="30.83203125" customWidth="1"/>
+    <col min="6" max="6" width="30.83203125" customWidth="1"/>
+    <col min="7" max="7" width="30.83203125" customWidth="1"/>
+    <col min="8" max="8" width="7.83203125" customWidth="1"/>
+    <col min="9" max="9" width="7.83203125" customWidth="1"/>
+    <col min="10" max="10" width="7.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="str">
+        <v>ST. FRANCIS INSTITUTE OF TECHNOLOGY</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="str">
+        <v xml:space="preserve"> UNIVERSITY OF MUMBAI</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="str">
+        <v>COURSE I:ETS401     :</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <v>COURSE II:ETC402     :</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <v>COURSE III:ETC403     :</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="str">
+        <v>COURSE IV:ETC404     :</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <v>COURSE V:ETC405     :</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <v>COURSE VI:ETC406     :</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="str">
+        <v>COURSE VII:ETL401     :</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <v>COURSE VIII:ETL402     :</v>
+      </c>
+      <c r="E6" s="1" t="str">
+        <v>COURSE IX:ETL403     :</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" s="1" t="str">
+        <v>&lt;------Course I------&gt;</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <v>&lt;------Course II------&gt;</v>
+      </c>
+      <c r="E7" s="1" t="str">
+        <v>&lt;------Course III------&gt;</v>
+      </c>
+      <c r="F7" s="1" t="str">
+        <v>&lt;------Course IV------&gt;</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="1" t="str">
+        <v>THEORY</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <v>80/32   20/8   100 C G GP C*GP</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <v>80/32   20/8   100 C G GP C*GP</v>
+      </c>
+      <c r="E8" s="1" t="str">
+        <v>80/32   20/8   100 C G GP C*GP</v>
+      </c>
+      <c r="F8" s="1" t="str">
+        <v>80/32   20/8   100 C G GP C*GP</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="1" t="str">
+        <v>TERMWORK/ORAL</v>
+      </c>
+      <c r="C9" s="1" t="str">
+        <v>25/10   C G GP C*GP</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" s="1" t="str">
+        <v>&lt;------Course V------&gt;</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <v>&lt;------Course VI------&gt;</v>
+      </c>
+      <c r="E10" s="1" t="str">
+        <v>&lt;------Course VII------&gt;</v>
+      </c>
+      <c r="F10" s="1" t="str">
+        <v>&lt;------Course VIII------&gt;</v>
+      </c>
+      <c r="G10" s="1" t="str">
+        <v>&lt;------Course IX------&gt;</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="1" t="str">
+        <v>THEORY</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <v>80/32   20/8   100 C G GP C*GP</v>
+      </c>
+      <c r="D11" s="1" t="str">
+        <v>80/32   20/8   100 C G GP C*GP</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="1" t="str">
+        <v>TERMWORK/ORAL</v>
+      </c>
+      <c r="C12" s="1" t="str">
+        <v>25/10   C G GP C*GP</v>
+      </c>
+      <c r="E12" s="1" t="str">
+        <v>25/10  25/10    50 C G GP C*GP</v>
+      </c>
+      <c r="F12" s="1" t="str">
+        <v>25/10  25/10    50 C G GP C*GP</v>
+      </c>
+      <c r="G12" s="1" t="str">
+        <v>25/10  25/10    50 C G GP C*GP</v>
+      </c>
+      <c r="H12" s="1" t="str">
+        <v>∑C</v>
+      </c>
+      <c r="I12" s="1" t="str">
+        <v>∑CG</v>
+      </c>
+      <c r="J12" s="1" t="str">
+        <v>GPA</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="str">
+        <v>191039</v>
+      </c>
+      <c r="C14" s="1" t="str">
+        <v>32</v>
+      </c>
+      <c r="D14" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E14" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="D15" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="E15" s="1" t="str">
+        <v>/</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="str">
+        <v>201002</v>
+      </c>
+      <c r="C19" s="1" t="str">
+        <v>-8</v>
+      </c>
+      <c r="D19" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E19" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="D20" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="E20" s="1" t="str">
+        <v>/</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="str">
+        <v>201004</v>
+      </c>
+      <c r="C24" s="1" t="str">
+        <v>-8</v>
+      </c>
+      <c r="D24" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E24" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="D25" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="E25" s="1" t="str">
+        <v>/</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="str">
+        <v>201006</v>
+      </c>
+      <c r="C29" s="1" t="str">
+        <v>-8</v>
+      </c>
+      <c r="D29" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E29" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="D30" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="E30" s="1" t="str">
+        <v>/</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="str">
+        <v>201009</v>
+      </c>
+      <c r="C34" s="1" t="str">
+        <v>-8</v>
+      </c>
+      <c r="D34" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E34" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="D35" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="E35" s="1" t="str">
+        <v>/</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="str">
+        <v>201019</v>
+      </c>
+      <c r="C39" s="1" t="str">
+        <v>-8</v>
+      </c>
+      <c r="D39" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E39" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="D40" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="E40" s="1" t="str">
+        <v>/</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="str">
+        <v>201022</v>
+      </c>
+      <c r="C44" s="1" t="str">
+        <v>-8</v>
+      </c>
+      <c r="D44" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E44" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="D45" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="E45" s="1" t="str">
+        <v>/</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="str">
+        <v>201024</v>
+      </c>
+      <c r="C49" s="1" t="str">
+        <v>-8</v>
+      </c>
+      <c r="D49" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E49" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="D50" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="E50" s="1" t="str">
+        <v>/</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="str">
+        <v>201026</v>
+      </c>
+      <c r="C54" s="1" t="str">
+        <v>-8</v>
+      </c>
+      <c r="D54" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E54" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="D55" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="E55" s="1" t="str">
+        <v>/</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="str">
+        <v>201029</v>
+      </c>
+      <c r="C59" s="1" t="str">
+        <v>-8</v>
+      </c>
+      <c r="D59" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E59" s="1" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="D60" s="1" t="str">
+        <v>/</v>
+      </c>
+      <c r="E60" s="1" t="str">
+        <v>/</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:L62"/>
+  </ignoredErrors>
+</worksheet>
 </file>